--- a/data/output/BDA6_SCHULE_Gemeinden_LU_Roh.xlsx
+++ b/data/output/BDA6_SCHULE_Gemeinden_LU_Roh.xlsx
@@ -45,10 +45,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1138,7 +1138,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ettiswil</t>
+          <t>Escholzmatt-Marbach</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1148,47 +1148,47 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ettiswil</t>
+          <t>Marbach (LU) XXX</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1128.0</v>
+        <v>1010.0</v>
       </c>
       <c r="F27" t="n">
-        <v>782.0</v>
+        <v>869.0</v>
       </c>
       <c r="G27" t="n">
-        <v>577.0</v>
+        <v>854.0</v>
       </c>
       <c r="H27" t="n">
-        <v>428.0</v>
+        <v>832.0</v>
       </c>
       <c r="I27" t="n">
-        <v>859.0</v>
+        <v>857.0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="K27" t="n">
-        <v>499.0</v>
+        <v>575.0</v>
       </c>
       <c r="L27" t="n">
-        <v>757.0</v>
+        <v>201.0</v>
       </c>
       <c r="M27" t="n">
-        <v>775.0</v>
+        <v>830.0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fischbach</t>
+          <t>Ettiswil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1198,23 +1198,47 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fischbach</t>
+          <t>Ettiswil</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1129.0</v>
+        <v>1128.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>859.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>775.0</v>
       </c>
       <c r="N28" t="n">
-        <v>4.0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Flühli</t>
+          <t>Fischbach</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1224,23 +1248,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Flühli</t>
+          <t>Fischbach</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1004.0</v>
+        <v>1129.0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.6</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gettnau</t>
+          <t>Flühli</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1250,23 +1274,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gettnau</t>
+          <t>Flühli</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1130.0</v>
+        <v>1004.0</v>
       </c>
       <c r="N30" t="n">
-        <v>4.0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Geuensee</t>
+          <t>Gettnau</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1276,47 +1300,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geuensee</t>
+          <t>Gettnau</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1085.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>534.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>183.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>812.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>571.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>826.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>718.0</v>
+        <v>1130.0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.9</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gisikon</t>
+          <t>Geuensee</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1326,23 +1326,47 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gisikon</t>
+          <t>Geuensee</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1055.0</v>
+        <v>1085.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>534.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>718.0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Greppen</t>
+          <t>Gisikon</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1352,23 +1376,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Greppen</t>
+          <t>Gisikon</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1056.0</v>
+        <v>1055.0</v>
       </c>
       <c r="N33" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Grossdietwil</t>
+          <t>Greppen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1378,23 +1402,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Grossdietwil</t>
+          <t>Greppen</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1131.0</v>
+        <v>1056.0</v>
       </c>
       <c r="N34" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Grosswangen</t>
+          <t>Grossdietwil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1404,47 +1428,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Grosswangen</t>
+          <t>Grossdietwil</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>583.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>512.0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>533.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>872.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>494.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>877.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>553.0</v>
+        <v>1131.0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hasle (LU)</t>
+          <t>Grosswangen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1454,23 +1454,47 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hasle (LU)</t>
+          <t>Grosswangen</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1005.0</v>
+        <v>1086.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>872.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>553.0</v>
       </c>
       <c r="N36" t="n">
-        <v>4.0</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hergiswil bei Willisau</t>
+          <t>Hasle (LU)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1480,23 +1504,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hergiswil bei Willisau</t>
+          <t>Hasle (LU)</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1132.0</v>
+        <v>1005.0</v>
       </c>
       <c r="N37" t="n">
-        <v>3.8</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hildisrieden</t>
+          <t>Hergiswil bei Willisau</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1506,47 +1530,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hildisrieden</t>
+          <t>Hergiswil bei Willisau</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1088.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>791.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>701.0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>108.0</v>
+        <v>1132.0</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hitzkirch</t>
+          <t>Hildisrieden</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1556,47 +1556,47 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hitzkirch</t>
+          <t>Hildisrieden</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1030.0</v>
+        <v>1088.0</v>
       </c>
       <c r="F39" t="n">
-        <v>316.0</v>
+        <v>172.0</v>
       </c>
       <c r="G39" t="n">
-        <v>78.0</v>
+        <v>141.0</v>
       </c>
       <c r="H39" t="n">
-        <v>271.0</v>
+        <v>49.0</v>
       </c>
       <c r="I39" t="n">
-        <v>812.0</v>
+        <v>791.0</v>
       </c>
       <c r="J39" t="n">
-        <v>177.0</v>
+        <v>73.0</v>
       </c>
       <c r="K39" t="n">
-        <v>521.0</v>
+        <v>367.0</v>
       </c>
       <c r="L39" t="n">
-        <v>116.0</v>
+        <v>701.0</v>
       </c>
       <c r="M39" t="n">
-        <v>503.0</v>
+        <v>108.0</v>
       </c>
       <c r="N39" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hochdorf</t>
+          <t>Hitzkirch</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1606,47 +1606,47 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hochdorf</t>
+          <t>Hitzkirch</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1031.0</v>
+        <v>1030.0</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0</v>
+        <v>316.0</v>
       </c>
       <c r="G40" t="n">
-        <v>181.0</v>
+        <v>78.0</v>
       </c>
       <c r="H40" t="n">
-        <v>445.0</v>
+        <v>271.0</v>
       </c>
       <c r="I40" t="n">
-        <v>795.0</v>
+        <v>812.0</v>
       </c>
       <c r="J40" t="n">
         <v>177.0</v>
       </c>
       <c r="K40" t="n">
-        <v>468.0</v>
+        <v>521.0</v>
       </c>
       <c r="L40" t="n">
-        <v>284.0</v>
+        <v>116.0</v>
       </c>
       <c r="M40" t="n">
-        <v>723.0</v>
+        <v>503.0</v>
       </c>
       <c r="N40" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hohenrain</t>
+          <t>Hochdorf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1656,47 +1656,47 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hohenrain</t>
+          <t>Hochdorf</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1032.0</v>
+        <v>1031.0</v>
       </c>
       <c r="F41" t="n">
-        <v>744.0</v>
+        <v>410.0</v>
       </c>
       <c r="G41" t="n">
-        <v>754.0</v>
+        <v>181.0</v>
       </c>
       <c r="H41" t="n">
-        <v>297.0</v>
+        <v>445.0</v>
       </c>
       <c r="I41" t="n">
-        <v>848.0</v>
+        <v>795.0</v>
       </c>
       <c r="J41" t="n">
         <v>177.0</v>
       </c>
       <c r="K41" t="n">
-        <v>543.0</v>
+        <v>468.0</v>
       </c>
       <c r="L41" t="n">
-        <v>838.0</v>
+        <v>284.0</v>
       </c>
       <c r="M41" t="n">
-        <v>419.0</v>
+        <v>723.0</v>
       </c>
       <c r="N41" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honau</t>
+          <t>Hohenrain</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1706,23 +1706,47 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Honau</t>
+          <t>Hohenrain</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1057.0</v>
+        <v>1032.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>744.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>848.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>419.0</v>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Horw</t>
+          <t>Honau</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1732,47 +1756,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Horw</t>
+          <t>Honau</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1058.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>525.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>407.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>32.0</v>
+        <v>1057.0</v>
       </c>
       <c r="N43" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Inwil</t>
+          <t>Horw</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1782,47 +1782,47 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Inwil</t>
+          <t>Horw</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1033.0</v>
+        <v>1058.0</v>
       </c>
       <c r="F44" t="n">
-        <v>559.0</v>
+        <v>35.0</v>
       </c>
       <c r="G44" t="n">
-        <v>422.0</v>
+        <v>29.0</v>
       </c>
       <c r="H44" t="n">
-        <v>285.0</v>
+        <v>450.0</v>
       </c>
       <c r="I44" t="n">
-        <v>726.0</v>
+        <v>525.0</v>
       </c>
       <c r="J44" t="n">
-        <v>177.0</v>
+        <v>273.0</v>
       </c>
       <c r="K44" t="n">
-        <v>359.0</v>
+        <v>196.0</v>
       </c>
       <c r="L44" t="n">
-        <v>663.0</v>
+        <v>407.0</v>
       </c>
       <c r="M44" t="n">
-        <v>789.0</v>
+        <v>32.0</v>
       </c>
       <c r="N44" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Knutwil</t>
+          <t>Inwil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1832,47 +1832,47 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Knutwil</t>
+          <t>Inwil</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1089.0</v>
+        <v>1033.0</v>
       </c>
       <c r="F45" t="n">
-        <v>377.0</v>
+        <v>559.0</v>
       </c>
       <c r="G45" t="n">
-        <v>441.0</v>
+        <v>422.0</v>
       </c>
       <c r="H45" t="n">
-        <v>103.0</v>
+        <v>285.0</v>
       </c>
       <c r="I45" t="n">
-        <v>827.0</v>
+        <v>726.0</v>
       </c>
       <c r="J45" t="n">
-        <v>73.0</v>
+        <v>177.0</v>
       </c>
       <c r="K45" t="n">
-        <v>524.0</v>
+        <v>359.0</v>
       </c>
       <c r="L45" t="n">
-        <v>542.0</v>
+        <v>663.0</v>
       </c>
       <c r="M45" t="n">
-        <v>429.0</v>
+        <v>789.0</v>
       </c>
       <c r="N45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kriens</t>
+          <t>Knutwil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1882,47 +1882,47 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kriens</t>
+          <t>Knutwil</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1059.0</v>
+        <v>1089.0</v>
       </c>
       <c r="F46" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>827.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="M46" t="n">
         <v>429.0</v>
       </c>
-      <c r="G46" t="n">
-        <v>419.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>808.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>459.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>571.0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>356.0</v>
-      </c>
       <c r="N46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luthern</t>
+          <t>Kriens</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1932,23 +1932,47 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Luthern</t>
+          <t>Kriens</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1135.0</v>
+        <v>1059.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>356.0</v>
       </c>
       <c r="N47" t="n">
-        <v>4.0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Luthern</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1958,47 +1982,23 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Luthern</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1061.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>705.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>874.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>339.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>29.0</v>
+        <v>1135.0</v>
       </c>
       <c r="N48" t="n">
-        <v>3.45</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Malters</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2008,47 +2008,47 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Malters</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1062.0</v>
+        <v>1061.0</v>
       </c>
       <c r="F49" t="n">
-        <v>401.0</v>
+        <v>80.0</v>
       </c>
       <c r="G49" t="n">
-        <v>278.0</v>
+        <v>172.0</v>
       </c>
       <c r="H49" t="n">
-        <v>684.0</v>
+        <v>705.0</v>
       </c>
       <c r="I49" t="n">
-        <v>629.0</v>
+        <v>170.0</v>
       </c>
       <c r="J49" t="n">
-        <v>273.0</v>
+        <v>874.0</v>
       </c>
       <c r="K49" t="n">
-        <v>472.0</v>
+        <v>339.0</v>
       </c>
       <c r="L49" t="n">
-        <v>334.0</v>
+        <v>102.0</v>
       </c>
       <c r="M49" t="n">
-        <v>725.0</v>
+        <v>29.0</v>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mauensee</t>
+          <t>Malters</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2058,23 +2058,47 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mauensee</t>
+          <t>Malters</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>1.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1091.0</v>
+        <v>1062.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>725.0</v>
       </c>
       <c r="N50" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Meggen</t>
+          <t>Mauensee</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2084,47 +2108,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Meggen</t>
+          <t>Mauensee</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>1.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1063.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>473.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>19.0</v>
+        <v>1091.0</v>
       </c>
       <c r="N51" t="n">
-        <v>2.535</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Meierskappel</t>
+          <t>Meggen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2134,23 +2134,47 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Meierskappel</t>
+          <t>Meggen</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>1.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1064.0</v>
+        <v>1063.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>19.0</v>
       </c>
       <c r="N52" t="n">
-        <v>3.85</v>
+        <v>2.535</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Menznau</t>
+          <t>Meierskappel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2160,47 +2184,23 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Menznau</t>
+          <t>Meierskappel</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1136.0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>893.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>832.0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>803.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>876.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>698.0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>763.0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>826.0</v>
+        <v>1064.0</v>
       </c>
       <c r="N53" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nebikon</t>
+          <t>Menznau</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2210,47 +2210,47 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nebikon</t>
+          <t>Menznau</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1137.0</v>
+        <v>1136.0</v>
       </c>
       <c r="F54" t="n">
-        <v>741.0</v>
+        <v>893.0</v>
       </c>
       <c r="G54" t="n">
-        <v>685.0</v>
+        <v>832.0</v>
       </c>
       <c r="H54" t="n">
-        <v>281.0</v>
+        <v>803.0</v>
       </c>
       <c r="I54" t="n">
-        <v>617.0</v>
+        <v>876.0</v>
       </c>
       <c r="J54" t="n">
         <v>10.0</v>
       </c>
       <c r="K54" t="n">
-        <v>410.0</v>
+        <v>698.0</v>
       </c>
       <c r="L54" t="n">
-        <v>852.0</v>
+        <v>763.0</v>
       </c>
       <c r="M54" t="n">
-        <v>706.0</v>
+        <v>826.0</v>
       </c>
       <c r="N54" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Neuenkirch</t>
+          <t>Nebikon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2260,38 +2260,38 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Neuenkirch</t>
+          <t>Nebikon</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1093.0</v>
+        <v>1137.0</v>
       </c>
       <c r="F55" t="n">
-        <v>198.0</v>
+        <v>741.0</v>
       </c>
       <c r="G55" t="n">
-        <v>29.0</v>
+        <v>685.0</v>
       </c>
       <c r="H55" t="n">
-        <v>199.0</v>
+        <v>281.0</v>
       </c>
       <c r="I55" t="n">
-        <v>695.0</v>
+        <v>617.0</v>
       </c>
       <c r="J55" t="n">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="K55" t="n">
-        <v>472.0</v>
+        <v>410.0</v>
       </c>
       <c r="L55" t="n">
-        <v>344.0</v>
+        <v>852.0</v>
       </c>
       <c r="M55" t="n">
-        <v>308.0</v>
+        <v>706.0</v>
       </c>
       <c r="N55" t="n">
         <v>3.5</v>
@@ -2300,7 +2300,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nottwil</t>
+          <t>Neuenkirch</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2310,47 +2310,47 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nottwil</t>
+          <t>Neuenkirch</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1094.0</v>
+        <v>1093.0</v>
       </c>
       <c r="F56" t="n">
-        <v>267.0</v>
+        <v>198.0</v>
       </c>
       <c r="G56" t="n">
-        <v>128.0</v>
+        <v>29.0</v>
       </c>
       <c r="H56" t="n">
-        <v>136.0</v>
+        <v>199.0</v>
       </c>
       <c r="I56" t="n">
-        <v>798.0</v>
+        <v>695.0</v>
       </c>
       <c r="J56" t="n">
         <v>73.0</v>
       </c>
       <c r="K56" t="n">
-        <v>459.0</v>
+        <v>472.0</v>
       </c>
       <c r="L56" t="n">
-        <v>69.0</v>
+        <v>344.0</v>
       </c>
       <c r="M56" t="n">
-        <v>37.0</v>
+        <v>308.0</v>
       </c>
       <c r="N56" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Oberkirch</t>
+          <t>Nottwil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Oberkirch</t>
+          <t>Nottwil</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1095.0</v>
+        <v>1094.0</v>
       </c>
       <c r="F57" t="n">
-        <v>297.0</v>
+        <v>267.0</v>
       </c>
       <c r="G57" t="n">
-        <v>106.0</v>
+        <v>128.0</v>
       </c>
       <c r="H57" t="n">
-        <v>73.0</v>
+        <v>136.0</v>
       </c>
       <c r="I57" t="n">
-        <v>811.0</v>
+        <v>798.0</v>
       </c>
       <c r="J57" t="n">
         <v>73.0</v>
       </c>
       <c r="K57" t="n">
-        <v>223.0</v>
+        <v>459.0</v>
       </c>
       <c r="L57" t="n">
-        <v>453.0</v>
+        <v>69.0</v>
       </c>
       <c r="M57" t="n">
-        <v>68.0</v>
+        <v>37.0</v>
       </c>
       <c r="N57" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pfaffnau</t>
+          <t>Oberkirch</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2410,47 +2410,47 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pfaffnau</t>
+          <t>Oberkirch</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1139.0</v>
+        <v>1095.0</v>
       </c>
       <c r="F58" t="n">
-        <v>610.0</v>
+        <v>297.0</v>
       </c>
       <c r="G58" t="n">
-        <v>607.0</v>
+        <v>106.0</v>
       </c>
       <c r="H58" t="n">
-        <v>426.0</v>
+        <v>73.0</v>
       </c>
       <c r="I58" t="n">
-        <v>745.0</v>
+        <v>811.0</v>
       </c>
       <c r="J58" t="n">
-        <v>10.0</v>
+        <v>73.0</v>
       </c>
       <c r="K58" t="n">
-        <v>484.0</v>
+        <v>223.0</v>
       </c>
       <c r="L58" t="n">
-        <v>409.0</v>
+        <v>453.0</v>
       </c>
       <c r="M58" t="n">
-        <v>288.0</v>
+        <v>68.0</v>
       </c>
       <c r="N58" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Pfaffnau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2460,47 +2460,47 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Pfaffnau</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1037.0</v>
+        <v>1139.0</v>
       </c>
       <c r="F59" t="n">
-        <v>194.0</v>
+        <v>610.0</v>
       </c>
       <c r="G59" t="n">
-        <v>20.0</v>
+        <v>607.0</v>
       </c>
       <c r="H59" t="n">
-        <v>37.0</v>
+        <v>426.0</v>
       </c>
       <c r="I59" t="n">
-        <v>776.0</v>
+        <v>745.0</v>
       </c>
       <c r="J59" t="n">
-        <v>177.0</v>
+        <v>10.0</v>
       </c>
       <c r="K59" t="n">
-        <v>417.0</v>
+        <v>484.0</v>
       </c>
       <c r="L59" t="n">
-        <v>782.0</v>
+        <v>409.0</v>
       </c>
       <c r="M59" t="n">
-        <v>711.0</v>
+        <v>288.0</v>
       </c>
       <c r="N59" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Reiden</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2510,47 +2510,47 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Reiden</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1140.0</v>
+        <v>1037.0</v>
       </c>
       <c r="F60" t="n">
-        <v>712.0</v>
+        <v>194.0</v>
       </c>
       <c r="G60" t="n">
-        <v>780.0</v>
+        <v>20.0</v>
       </c>
       <c r="H60" t="n">
-        <v>752.0</v>
+        <v>37.0</v>
       </c>
       <c r="I60" t="n">
-        <v>323.0</v>
+        <v>776.0</v>
       </c>
       <c r="J60" t="n">
-        <v>10.0</v>
+        <v>177.0</v>
       </c>
       <c r="K60" t="n">
-        <v>575.0</v>
+        <v>417.0</v>
       </c>
       <c r="L60" t="n">
-        <v>377.0</v>
+        <v>782.0</v>
       </c>
       <c r="M60" t="n">
-        <v>506.0</v>
+        <v>711.0</v>
       </c>
       <c r="N60" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Reiden</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2560,47 +2560,47 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Reiden</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
       </c>
       <c r="E61" t="n">
-        <v>1097.0</v>
+        <v>1140.0</v>
       </c>
       <c r="F61" t="n">
-        <v>771.0</v>
+        <v>712.0</v>
       </c>
       <c r="G61" t="n">
-        <v>721.0</v>
+        <v>780.0</v>
       </c>
       <c r="H61" t="n">
-        <v>287.0</v>
+        <v>752.0</v>
       </c>
       <c r="I61" t="n">
-        <v>861.0</v>
+        <v>323.0</v>
       </c>
       <c r="J61" t="n">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="K61" t="n">
-        <v>543.0</v>
+        <v>575.0</v>
       </c>
       <c r="L61" t="n">
-        <v>769.0</v>
+        <v>377.0</v>
       </c>
       <c r="M61" t="n">
-        <v>627.0</v>
+        <v>506.0</v>
       </c>
       <c r="N61" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Roggliswil</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2610,23 +2610,47 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Roggliswil</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
       </c>
       <c r="E62" t="n">
-        <v>1142.0</v>
+        <v>1097.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>627.0</v>
       </c>
       <c r="N62" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Romoos</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2636,23 +2660,47 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Romoos</t>
+          <t>Pfeffikon XXX</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1007.0</v>
+        <v>1097.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>627.0</v>
       </c>
       <c r="N63" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Roggliswil</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2662,47 +2710,23 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Roggliswil</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1065.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>468.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>690.0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>462.0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>472.0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>192.0</v>
+        <v>1142.0</v>
       </c>
       <c r="N64" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rothenburg</t>
+          <t>Romoos</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2712,47 +2736,23 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rothenburg</t>
+          <t>Romoos</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1040.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>277.0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>513.0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>511.0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>243.0</v>
+        <v>1007.0</v>
       </c>
       <c r="N65" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ruswil</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2762,47 +2762,47 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ruswil</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1098.0</v>
+        <v>1065.0</v>
       </c>
       <c r="F66" t="n">
-        <v>400.0</v>
+        <v>468.0</v>
       </c>
       <c r="G66" t="n">
-        <v>158.0</v>
+        <v>504.0</v>
       </c>
       <c r="H66" t="n">
-        <v>577.0</v>
+        <v>690.0</v>
       </c>
       <c r="I66" t="n">
-        <v>840.0</v>
+        <v>462.0</v>
       </c>
       <c r="J66" t="n">
-        <v>73.0</v>
+        <v>273.0</v>
       </c>
       <c r="K66" t="n">
-        <v>537.0</v>
+        <v>397.0</v>
       </c>
       <c r="L66" t="n">
-        <v>492.0</v>
+        <v>472.0</v>
       </c>
       <c r="M66" t="n">
-        <v>777.0</v>
+        <v>192.0</v>
       </c>
       <c r="N66" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Römerswil</t>
+          <t>Rothenburg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2812,23 +2812,47 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Römerswil</t>
+          <t>Rothenburg</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1039.0</v>
+        <v>1040.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>243.0</v>
       </c>
       <c r="N67" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Schenkon</t>
+          <t>Ruswil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2838,47 +2862,47 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Schenkon</t>
+          <t>Ruswil</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1099.0</v>
+        <v>1098.0</v>
       </c>
       <c r="F68" t="n">
-        <v>136.0</v>
+        <v>400.0</v>
       </c>
       <c r="G68" t="n">
-        <v>18.0</v>
+        <v>158.0</v>
       </c>
       <c r="H68" t="n">
-        <v>102.0</v>
+        <v>577.0</v>
       </c>
       <c r="I68" t="n">
-        <v>830.0</v>
+        <v>840.0</v>
       </c>
       <c r="J68" t="n">
         <v>73.0</v>
       </c>
       <c r="K68" t="n">
-        <v>86.0</v>
+        <v>537.0</v>
       </c>
       <c r="L68" t="n">
-        <v>610.0</v>
+        <v>492.0</v>
       </c>
       <c r="M68" t="n">
-        <v>62.0</v>
+        <v>777.0</v>
       </c>
       <c r="N68" t="n">
-        <v>2.85</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Schlierbach</t>
+          <t>Römerswil</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2888,23 +2912,23 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Schlierbach</t>
+          <t>Römerswil</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>1.0</v>
       </c>
       <c r="E69" t="n">
-        <v>1100.0</v>
+        <v>1039.0</v>
       </c>
       <c r="N69" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Schongau</t>
+          <t>Schenkon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2914,23 +2938,47 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Schongau</t>
+          <t>Schenkon</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
       <c r="E70" t="n">
-        <v>1041.0</v>
+        <v>1099.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>62.0</v>
       </c>
       <c r="N70" t="n">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Schwarzenberg</t>
+          <t>Schlierbach</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2940,23 +2988,23 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Schwarzenberg</t>
+          <t>Schlierbach</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
       </c>
       <c r="E71" t="n">
-        <v>1066.0</v>
+        <v>1100.0</v>
       </c>
       <c r="N71" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Schongau</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2966,47 +3014,23 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Schongau</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
       </c>
       <c r="E72" t="n">
-        <v>1143.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>772.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>591.0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>333.0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>814.0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>579.0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>837.0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>657.0</v>
+        <v>1041.0</v>
       </c>
       <c r="N72" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Schüpfheim</t>
+          <t>Schwarzenberg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3016,47 +3040,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Schüpfheim</t>
+          <t>Schwarzenberg</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
       </c>
       <c r="E73" t="n">
-        <v>1008.0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>531.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>323.0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>689.0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>846.0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>524.0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>775.0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>459.0</v>
+        <v>1066.0</v>
       </c>
       <c r="N73" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sempach</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3066,47 +3066,47 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sempach</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
       </c>
       <c r="E74" t="n">
-        <v>1102.0</v>
+        <v>1143.0</v>
       </c>
       <c r="F74" t="n">
-        <v>61.0</v>
+        <v>772.0</v>
       </c>
       <c r="G74" t="n">
-        <v>163.0</v>
+        <v>591.0</v>
       </c>
       <c r="H74" t="n">
-        <v>104.0</v>
+        <v>333.0</v>
       </c>
       <c r="I74" t="n">
-        <v>736.0</v>
+        <v>814.0</v>
       </c>
       <c r="J74" t="n">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="K74" t="n">
-        <v>468.0</v>
+        <v>579.0</v>
       </c>
       <c r="L74" t="n">
-        <v>285.0</v>
+        <v>837.0</v>
       </c>
       <c r="M74" t="n">
-        <v>112.0</v>
+        <v>657.0</v>
       </c>
       <c r="N74" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sursee</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3116,47 +3116,47 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sursee</t>
+          <t>Ohmstal XXX</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1103.0</v>
+        <v>1143.0</v>
       </c>
       <c r="F75" t="n">
-        <v>321.0</v>
+        <v>772.0</v>
       </c>
       <c r="G75" t="n">
-        <v>343.0</v>
+        <v>591.0</v>
       </c>
       <c r="H75" t="n">
-        <v>488.0</v>
+        <v>333.0</v>
       </c>
       <c r="I75" t="n">
-        <v>685.0</v>
+        <v>814.0</v>
       </c>
       <c r="J75" t="n">
-        <v>73.0</v>
+        <v>10.0</v>
       </c>
       <c r="K75" t="n">
-        <v>339.0</v>
+        <v>579.0</v>
       </c>
       <c r="L75" t="n">
-        <v>58.0</v>
+        <v>837.0</v>
       </c>
       <c r="M75" t="n">
-        <v>15.0</v>
+        <v>657.0</v>
       </c>
       <c r="N75" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Triengen</t>
+          <t>Schüpfheim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3166,47 +3166,47 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Triengen</t>
+          <t>Schüpfheim</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1104.0</v>
+        <v>1008.0</v>
       </c>
       <c r="F76" t="n">
-        <v>777.0</v>
+        <v>531.0</v>
       </c>
       <c r="G76" t="n">
-        <v>733.0</v>
+        <v>323.0</v>
       </c>
       <c r="H76" t="n">
-        <v>506.0</v>
+        <v>689.0</v>
       </c>
       <c r="I76" t="n">
-        <v>832.0</v>
+        <v>846.0</v>
       </c>
       <c r="J76" t="n">
-        <v>73.0</v>
+        <v>20.0</v>
       </c>
       <c r="K76" t="n">
-        <v>326.0</v>
+        <v>524.0</v>
       </c>
       <c r="L76" t="n">
-        <v>818.0</v>
+        <v>775.0</v>
       </c>
       <c r="M76" t="n">
-        <v>510.0</v>
+        <v>459.0</v>
       </c>
       <c r="N76" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Udligenswil</t>
+          <t>Sempach</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3216,47 +3216,47 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Udligenswil</t>
+          <t>Sempach</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1067.0</v>
+        <v>1102.0</v>
       </c>
       <c r="F77" t="n">
-        <v>220.0</v>
+        <v>61.0</v>
       </c>
       <c r="G77" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="H77" t="n">
         <v>104.0</v>
       </c>
-      <c r="H77" t="n">
-        <v>30.0</v>
-      </c>
       <c r="I77" t="n">
-        <v>580.0</v>
+        <v>736.0</v>
       </c>
       <c r="J77" t="n">
-        <v>273.0</v>
+        <v>73.0</v>
       </c>
       <c r="K77" t="n">
-        <v>424.0</v>
+        <v>468.0</v>
       </c>
       <c r="L77" t="n">
-        <v>680.0</v>
+        <v>285.0</v>
       </c>
       <c r="M77" t="n">
-        <v>169.0</v>
+        <v>112.0</v>
       </c>
       <c r="N77" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ufhusen</t>
+          <t>Sursee</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3266,23 +3266,47 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ufhusen</t>
+          <t>Sursee</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1145.0</v>
+        <v>1103.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>685.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>15.0</v>
       </c>
       <c r="N78" t="n">
-        <v>4.0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Vitznau</t>
+          <t>Triengen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3292,23 +3316,47 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Vitznau</t>
+          <t>Triengen</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1068.0</v>
+        <v>1104.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>832.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>510.0</v>
       </c>
       <c r="N79" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wauwil</t>
+          <t>Udligenswil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3318,47 +3366,47 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wauwil</t>
+          <t>Udligenswil</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" t="n">
-        <v>1146.0</v>
+        <v>1067.0</v>
       </c>
       <c r="F80" t="n">
-        <v>561.0</v>
+        <v>220.0</v>
       </c>
       <c r="G80" t="n">
-        <v>493.0</v>
+        <v>104.0</v>
       </c>
       <c r="H80" t="n">
-        <v>551.0</v>
+        <v>30.0</v>
       </c>
       <c r="I80" t="n">
-        <v>720.0</v>
+        <v>580.0</v>
       </c>
       <c r="J80" t="n">
-        <v>10.0</v>
+        <v>273.0</v>
       </c>
       <c r="K80" t="n">
-        <v>505.0</v>
+        <v>424.0</v>
       </c>
       <c r="L80" t="n">
-        <v>834.0</v>
+        <v>680.0</v>
       </c>
       <c r="M80" t="n">
-        <v>606.0</v>
+        <v>169.0</v>
       </c>
       <c r="N80" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Weggis</t>
+          <t>Ufhusen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3368,47 +3416,23 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Weggis</t>
+          <t>Ufhusen</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>1.0</v>
       </c>
       <c r="E81" t="n">
-        <v>1069.0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>416.0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>817.0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>41.0</v>
+        <v>1145.0</v>
       </c>
       <c r="N81" t="n">
-        <v>3.05</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Werthenstein</t>
+          <t>Vitznau</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3418,47 +3442,23 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Werthenstein</t>
+          <t>Vitznau</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>1.0</v>
       </c>
       <c r="E82" t="n">
-        <v>1009.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>678.0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>541.0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>772.0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>837.0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>613.0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>585.0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>305.0</v>
+        <v>1068.0</v>
       </c>
       <c r="N82" t="n">
-        <v>4.0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wikon</t>
+          <t>Wauwil</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3468,23 +3468,47 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wikon</t>
+          <t>Wauwil</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
       </c>
       <c r="E83" t="n">
-        <v>1147.0</v>
+        <v>1146.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>606.0</v>
       </c>
       <c r="N83" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Willisau</t>
+          <t>Weggis</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3494,47 +3518,47 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Willisau</t>
+          <t>Weggis</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
       </c>
       <c r="E84" t="n">
-        <v>1151.0</v>
+        <v>1069.0</v>
       </c>
       <c r="F84" t="n">
-        <v>705.0</v>
+        <v>148.0</v>
       </c>
       <c r="G84" t="n">
-        <v>623.0</v>
+        <v>416.0</v>
       </c>
       <c r="H84" t="n">
-        <v>594.0</v>
+        <v>160.0</v>
       </c>
       <c r="I84" t="n">
-        <v>892.0</v>
+        <v>817.0</v>
       </c>
       <c r="J84" t="n">
-        <v>10.0</v>
+        <v>273.0</v>
       </c>
       <c r="K84" t="n">
-        <v>532.0</v>
+        <v>192.0</v>
       </c>
       <c r="L84" t="n">
-        <v>223.0</v>
+        <v>50.0</v>
       </c>
       <c r="M84" t="n">
-        <v>413.0</v>
+        <v>41.0</v>
       </c>
       <c r="N84" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wolhusen</t>
+          <t>Werthenstein</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3544,26 +3568,26 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wolhusen</t>
+          <t>Werthenstein</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
       </c>
       <c r="E85" t="n">
-        <v>1107.0</v>
+        <v>1009.0</v>
       </c>
       <c r="F85" t="n">
-        <v>726.0</v>
+        <v>678.0</v>
       </c>
       <c r="G85" t="n">
-        <v>627.0</v>
+        <v>541.0</v>
       </c>
       <c r="H85" t="n">
-        <v>822.0</v>
+        <v>772.0</v>
       </c>
       <c r="I85" t="n">
-        <v>818.0</v>
+        <v>837.0</v>
       </c>
       <c r="J85" t="n">
         <v>20.0</v>
@@ -3572,10 +3596,10 @@
         <v>613.0</v>
       </c>
       <c r="L85" t="n">
-        <v>768.0</v>
+        <v>585.0</v>
       </c>
       <c r="M85" t="n">
-        <v>188.0</v>
+        <v>305.0</v>
       </c>
       <c r="N85" t="n">
         <v>4.0</v>
@@ -3584,50 +3608,176 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Wikon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wikon</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>892.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wolhusen</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wolhusen</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>Zell (LU)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>Zell (LU)</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="D89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E89" t="n">
         <v>1150.0</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F89" t="n">
         <v>761.0</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G89" t="n">
         <v>739.0</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H89" t="n">
         <v>664.0</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I89" t="n">
         <v>843.0</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J89" t="n">
         <v>10.0</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K89" t="n">
         <v>505.0</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L89" t="n">
         <v>512.0</v>
       </c>
-      <c r="M86" t="n">
+      <c r="M89" t="n">
         <v>607.0</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N89" t="n">
         <v>3.6</v>
       </c>
     </row>

--- a/data/output/BDA6_SCHULE_Gemeinden_LU_Roh.xlsx
+++ b/data/output/BDA6_SCHULE_Gemeinden_LU_Roh.xlsx
@@ -1,41 +1,514 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\GitHub\Matura\data\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr documentId="13_ncr:1_{66E71648-5BC0-41EB-93D6-53E721ABDB64}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Gemeinden" r:id="rId3" sheetId="1"/>
+    <sheet name="Gemeinden" r:id="rId5" sheetId="1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="150">
+  <si>
+    <t>GemeindeName</t>
+  </si>
+  <si>
+    <t>KantonKurzname</t>
+  </si>
+  <si>
+    <t>GemeindeNameSchule</t>
+  </si>
+  <si>
+    <t>GemeindeVerzeichnisFlag</t>
+  </si>
+  <si>
+    <t>GemeindeNummer</t>
+  </si>
+  <si>
+    <t>AnzahlEinwohner</t>
+  </si>
+  <si>
+    <t>RegionCode</t>
+  </si>
+  <si>
+    <t>RegionName</t>
+  </si>
+  <si>
+    <t>RegionKuerzel</t>
+  </si>
+  <si>
+    <t>WahlkreisName</t>
+  </si>
+  <si>
+    <t>WahlkreisKuerzel</t>
+  </si>
+  <si>
+    <t>AmtName</t>
+  </si>
+  <si>
+    <t>AmtKuerzel</t>
+  </si>
+  <si>
+    <t>BRank_Gesamt</t>
+  </si>
+  <si>
+    <t>BRank_Arbeitsmarkt</t>
+  </si>
+  <si>
+    <t>BRank_Bevoelkerung</t>
+  </si>
+  <si>
+    <t>BRank_Erreichbarkeit</t>
+  </si>
+  <si>
+    <t>BRank_Sicherheit</t>
+  </si>
+  <si>
+    <t>BRank_Steuerbelastung</t>
+  </si>
+  <si>
+    <t>BRank_Versorgung</t>
+  </si>
+  <si>
+    <t>BRank_Wohnen</t>
+  </si>
+  <si>
+    <t>SteuerFuss</t>
+  </si>
+  <si>
+    <t>Escholzmatt-Marbach</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>Marbach (LU) XXX</t>
+  </si>
+  <si>
+    <t>Entlebuch</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>Wahlkreis Entlebuch</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Amt Entlebuch</t>
+  </si>
+  <si>
+    <t>Escholzmatt XXX</t>
+  </si>
+  <si>
+    <t>Rickenbach (LU)</t>
+  </si>
+  <si>
+    <t>Pfeffikon XXX</t>
+  </si>
+  <si>
+    <t>Michelsamt/Surental</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>Wahlkreis Sursee</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>Amt Sursee</t>
+  </si>
+  <si>
+    <t>Beromünster</t>
+  </si>
+  <si>
+    <t>Neudorf XXX</t>
+  </si>
+  <si>
+    <t>Schötz</t>
+  </si>
+  <si>
+    <t>Ohmstal XXX</t>
+  </si>
+  <si>
+    <t>Willisau</t>
+  </si>
+  <si>
+    <t>WIL</t>
+  </si>
+  <si>
+    <t>Wahlkreis Willisau</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Amt Willisau</t>
+  </si>
+  <si>
+    <t>Luzern</t>
+  </si>
+  <si>
+    <t>Stadt Luzern</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>Wahlkreis Luzern-Stadt</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Amt Luzern</t>
+  </si>
+  <si>
+    <t>Buchrain</t>
+  </si>
+  <si>
+    <t>Agglomerationskern</t>
+  </si>
+  <si>
+    <t>AGK</t>
+  </si>
+  <si>
+    <t>Wahlkreis Luzern-Land</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Meierskappel</t>
+  </si>
+  <si>
+    <t>Rooterberg/Rigi</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Ebikon</t>
+  </si>
+  <si>
+    <t>Malters</t>
+  </si>
+  <si>
+    <t>Agglomerationsgürtel (Luzerner Teil)</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Honau</t>
+  </si>
+  <si>
+    <t>Kriens</t>
+  </si>
+  <si>
+    <t>Weggis</t>
+  </si>
+  <si>
+    <t>Meggen</t>
+  </si>
+  <si>
+    <t>Horw</t>
+  </si>
+  <si>
+    <t>Greppen</t>
+  </si>
+  <si>
+    <t>Udligenswil</t>
+  </si>
+  <si>
+    <t>Schwarzenberg</t>
+  </si>
+  <si>
+    <t>Adligenswil</t>
+  </si>
+  <si>
+    <t>Dierikon</t>
+  </si>
+  <si>
+    <t>Gisikon</t>
+  </si>
+  <si>
+    <t>Vitznau</t>
+  </si>
+  <si>
+    <t>Hasle (LU)</t>
+  </si>
+  <si>
+    <t>Werthenstein</t>
+  </si>
+  <si>
+    <t>Rottal-Wolhusen</t>
+  </si>
+  <si>
+    <t>ROW</t>
+  </si>
+  <si>
+    <t>Wolhusen</t>
+  </si>
+  <si>
+    <t>Flühli</t>
+  </si>
+  <si>
+    <t>Romoos</t>
+  </si>
+  <si>
+    <t>Doppleschwand</t>
+  </si>
+  <si>
+    <t>Schüpfheim</t>
+  </si>
+  <si>
+    <t>Hochdorf</t>
+  </si>
+  <si>
+    <t>Seetal</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>Wahlkreis Hochdorf</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>Amt Hochdorf</t>
+  </si>
+  <si>
+    <t>Eschenbach (LU)</t>
+  </si>
+  <si>
+    <t>Ermensee</t>
+  </si>
+  <si>
+    <t>Aesch (LU)</t>
+  </si>
+  <si>
+    <t>Ballwil</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Rothenburg</t>
+  </si>
+  <si>
+    <t>Römerswil</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Altwis</t>
+  </si>
+  <si>
+    <t>Hitzkirch</t>
+  </si>
+  <si>
+    <t>Hohenrain</t>
+  </si>
+  <si>
+    <t>Schongau</t>
+  </si>
+  <si>
+    <t>Inwil</t>
+  </si>
+  <si>
+    <t>Schlierbach</t>
+  </si>
+  <si>
+    <t>Sempach</t>
+  </si>
+  <si>
+    <t>Sursee/Sempachersee</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>Hildisrieden</t>
+  </si>
+  <si>
+    <t>Mauensee</t>
+  </si>
+  <si>
+    <t>Sursee</t>
+  </si>
+  <si>
+    <t>Knutwil</t>
+  </si>
+  <si>
+    <t>Buttisholz</t>
+  </si>
+  <si>
+    <t>Oberkirch</t>
+  </si>
+  <si>
+    <t>Nottwil</t>
+  </si>
+  <si>
+    <t>Schenkon</t>
+  </si>
+  <si>
+    <t>Triengen</t>
+  </si>
+  <si>
+    <t>Eich</t>
+  </si>
+  <si>
+    <t>Grosswangen</t>
+  </si>
+  <si>
+    <t>Büron</t>
+  </si>
+  <si>
+    <t>Geuensee</t>
+  </si>
+  <si>
+    <t>Ruswil</t>
+  </si>
+  <si>
+    <t>Neuenkirch</t>
+  </si>
+  <si>
+    <t>Hergiswil bei Willisau</t>
+  </si>
+  <si>
+    <t>Wikon</t>
+  </si>
+  <si>
+    <t>Unteres Wiggertal</t>
+  </si>
+  <si>
+    <t>WIG</t>
+  </si>
+  <si>
+    <t>Roggliswil</t>
+  </si>
+  <si>
+    <t>Altbüron</t>
+  </si>
+  <si>
+    <t>Dagmersellen</t>
+  </si>
+  <si>
+    <t>Ufhusen</t>
+  </si>
+  <si>
+    <t>Pfaffnau</t>
+  </si>
+  <si>
+    <t>Luthern</t>
+  </si>
+  <si>
+    <t>Altishofen</t>
+  </si>
+  <si>
+    <t>Ettiswil</t>
+  </si>
+  <si>
+    <t>Grossdietwil</t>
+  </si>
+  <si>
+    <t>Menznau</t>
+  </si>
+  <si>
+    <t>Egolzwil</t>
+  </si>
+  <si>
+    <t>Nebikon</t>
+  </si>
+  <si>
+    <t>Ebersecken</t>
+  </si>
+  <si>
+    <t>Wauwil</t>
+  </si>
+  <si>
+    <t>Alberswil</t>
+  </si>
+  <si>
+    <t>Fischbach</t>
+  </si>
+  <si>
+    <t>Gettnau</t>
+  </si>
+  <si>
+    <t>Reiden</t>
+  </si>
+  <si>
+    <t>Zell (LU)</t>
+  </si>
+  <si>
+    <t>MaturaNoteDurchschnitt</t>
+  </si>
+  <si>
+    <t>MaturaQuote</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,14 +516,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,22 +857,6 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="20.546875" customWidth="true"/>
-    <col min="2" max="2" width="16.4375" customWidth="true"/>
-    <col min="3" max="3" width="21.4609375" customWidth="true"/>
-    <col min="4" max="4" width="24.0703125" customWidth="true"/>
-    <col min="5" max="5" width="18.234375" customWidth="true"/>
-    <col min="6" max="6" width="14.625" customWidth="true"/>
-    <col min="7" max="7" width="19.44140625" customWidth="true"/>
-    <col min="8" max="8" width="19.984375" customWidth="true"/>
-    <col min="9" max="9" width="20.33984375" customWidth="true"/>
-    <col min="10" max="10" width="16.6875" customWidth="true"/>
-    <col min="11" max="11" width="22.34765625" customWidth="true"/>
-    <col min="12" max="12" width="18.01171875" customWidth="true"/>
-    <col min="13" max="13" width="15.41015625" customWidth="true"/>
-    <col min="14" max="14" width="10.78125" customWidth="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -105,47 +886,97 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>AnzahlEinwohner</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RegionCode</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>RegionName</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RegionKuerzel</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>WahlkreisName</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>WahlkreisKuerzel</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>AmtName</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>AmtKuerzel</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>BRank_Gesamt</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>BRank_Arbeitsmarkt</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>BRank_Bevoelkerung</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>BRank_Erreichbarkeit</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>BRank_Sicherheit</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>BRank_Steuerbelastung</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>BRank_Versorgung</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>BRank_Wohnen</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>SteuerFuss</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>MaturaNoteDurchschnitt</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>MaturaQuote</t>
         </is>
       </c>
     </row>
@@ -172,31 +1003,73 @@
         <v>1051.0</v>
       </c>
       <c r="F2" t="n">
+        <v>5349.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
         <v>236.0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>330.0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>148.0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="Q2" t="n">
         <v>551.0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="R2" t="n">
         <v>273.0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="S2" t="n">
         <v>462.0</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
         <v>669.0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="U2" t="n">
         <v>136.0</v>
       </c>
-      <c r="N2" t="n">
+      <c r="V2" t="n">
         <v>3.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="3">
@@ -221,8 +1094,74 @@
       <c r="E3" t="n">
         <v>1021.0</v>
       </c>
+      <c r="F3" t="n">
+        <v>1051.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
       <c r="N3" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="V3" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="4">
@@ -247,8 +1186,74 @@
       <c r="E4" t="n">
         <v>1121.0</v>
       </c>
+      <c r="F4" t="n">
+        <v>643.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N4" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>452.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>855.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>606.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>615.0</v>
+      </c>
+      <c r="V4" t="n">
         <v>3.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="5">
@@ -273,8 +1278,74 @@
       <c r="E5" t="n">
         <v>1122.0</v>
       </c>
+      <c r="F5" t="n">
+        <v>974.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N5" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>607.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>745.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="V5" t="n">
         <v>3.9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="6">
@@ -299,8 +1370,74 @@
       <c r="E6" t="n">
         <v>1123.0</v>
       </c>
+      <c r="F6" t="n">
+        <v>1579.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N6" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>570.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>461.0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>537.0</v>
+      </c>
+      <c r="V6" t="n">
         <v>3.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="7">
@@ -325,8 +1462,74 @@
       <c r="E7" t="n">
         <v>1022.0</v>
       </c>
+      <c r="F7" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
       <c r="N7" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="V7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.98</v>
       </c>
     </row>
     <row r="8">
@@ -352,31 +1555,73 @@
         <v>1023.0</v>
       </c>
       <c r="F8" t="n">
+        <v>2649.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>182.0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="O8" t="n">
         <v>64.0</v>
       </c>
-      <c r="H8" t="n">
+      <c r="P8" t="n">
         <v>83.0</v>
       </c>
-      <c r="I8" t="n">
+      <c r="Q8" t="n">
         <v>703.0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="R8" t="n">
         <v>177.0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="S8" t="n">
         <v>211.0</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
         <v>648.0</v>
       </c>
-      <c r="M8" t="n">
+      <c r="U8" t="n">
         <v>512.0</v>
       </c>
-      <c r="N8" t="n">
+      <c r="V8" t="n">
         <v>3.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="9">
@@ -402,31 +1647,73 @@
         <v>1081.0</v>
       </c>
       <c r="F9" t="n">
+        <v>6234.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>600.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="O9" t="n">
         <v>611.0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="P9" t="n">
         <v>233.0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="Q9" t="n">
         <v>854.0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="R9" t="n">
         <v>73.0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="S9" t="n">
         <v>434.0</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
         <v>576.0</v>
       </c>
-      <c r="M9" t="n">
+      <c r="U9" t="n">
         <v>255.0</v>
       </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="10">
@@ -452,31 +1739,73 @@
         <v>1081.0</v>
       </c>
       <c r="F10" t="n">
+        <v>6234.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>600.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="O10" t="n">
         <v>611.0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="P10" t="n">
         <v>233.0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="Q10" t="n">
         <v>854.0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="R10" t="n">
         <v>73.0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="S10" t="n">
         <v>434.0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
         <v>576.0</v>
       </c>
-      <c r="M10" t="n">
+      <c r="U10" t="n">
         <v>255.0</v>
       </c>
-      <c r="N10" t="n">
+      <c r="V10" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W10" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.12</v>
       </c>
     </row>
     <row r="11">
@@ -502,31 +1831,73 @@
         <v>1052.0</v>
       </c>
       <c r="F11" t="n">
+        <v>6161.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>282.0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="O11" t="n">
         <v>212.0</v>
       </c>
-      <c r="H11" t="n">
+      <c r="P11" t="n">
         <v>580.0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="Q11" t="n">
         <v>634.0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="R11" t="n">
         <v>273.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="S11" t="n">
         <v>434.0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
         <v>883.0</v>
       </c>
-      <c r="M11" t="n">
+      <c r="U11" t="n">
         <v>774.0</v>
       </c>
-      <c r="N11" t="n">
+      <c r="V11" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="12">
@@ -552,31 +1923,73 @@
         <v>1083.0</v>
       </c>
       <c r="F12" t="n">
+        <v>3272.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>810.0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="O12" t="n">
         <v>760.0</v>
       </c>
-      <c r="H12" t="n">
+      <c r="P12" t="n">
         <v>550.0</v>
       </c>
-      <c r="I12" t="n">
+      <c r="Q12" t="n">
         <v>864.0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="R12" t="n">
         <v>73.0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="S12" t="n">
         <v>543.0</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
         <v>787.0</v>
       </c>
-      <c r="M12" t="n">
+      <c r="U12" t="n">
         <v>536.0</v>
       </c>
-      <c r="N12" t="n">
+      <c r="V12" t="n">
         <v>3.7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="13">
@@ -602,31 +2015,73 @@
         <v>1082.0</v>
       </c>
       <c r="F13" t="n">
+        <v>2287.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>878.0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="O13" t="n">
         <v>837.0</v>
       </c>
-      <c r="H13" t="n">
+      <c r="P13" t="n">
         <v>639.0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="Q13" t="n">
         <v>832.0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="R13" t="n">
         <v>73.0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="S13" t="n">
         <v>622.0</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
         <v>667.0</v>
       </c>
-      <c r="M13" t="n">
+      <c r="U13" t="n">
         <v>609.0</v>
       </c>
-      <c r="N13" t="n">
+      <c r="V13" t="n">
         <v>3.9</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="14">
@@ -652,31 +2107,73 @@
         <v>1125.0</v>
       </c>
       <c r="F14" t="n">
+        <v>5118.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>415.0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="O14" t="n">
         <v>244.0</v>
       </c>
-      <c r="H14" t="n">
+      <c r="P14" t="n">
         <v>474.0</v>
       </c>
-      <c r="I14" t="n">
+      <c r="Q14" t="n">
         <v>499.0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="R14" t="n">
         <v>10.0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="S14" t="n">
         <v>397.0</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
         <v>908.0</v>
       </c>
-      <c r="M14" t="n">
+      <c r="U14" t="n">
         <v>400.0</v>
       </c>
-      <c r="N14" t="n">
+      <c r="V14" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="15">
@@ -701,8 +2198,74 @@
       <c r="E15" t="n">
         <v>1053.0</v>
       </c>
+      <c r="F15" t="n">
+        <v>1440.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N15" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>310.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>403.0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="V15" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="16">
@@ -727,8 +2290,74 @@
       <c r="E16" t="n">
         <v>1001.0</v>
       </c>
+      <c r="F16" t="n">
+        <v>743.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
       <c r="N16" t="n">
+        <v>734.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>676.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>762.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>366.0</v>
+      </c>
+      <c r="V16" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row r="17">
@@ -753,8 +2382,74 @@
       <c r="E17" t="n">
         <v>1126.0</v>
       </c>
+      <c r="F17" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N17" t="n">
+        <v>742.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>685.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>689.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="V17" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -780,31 +2475,73 @@
         <v>1054.0</v>
       </c>
       <c r="F18" t="n">
+        <v>12781.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>372.0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="O18" t="n">
         <v>398.0</v>
       </c>
-      <c r="H18" t="n">
+      <c r="P18" t="n">
         <v>569.0</v>
       </c>
-      <c r="I18" t="n">
+      <c r="Q18" t="n">
         <v>337.0</v>
       </c>
-      <c r="J18" t="n">
+      <c r="R18" t="n">
         <v>273.0</v>
       </c>
-      <c r="K18" t="n">
+      <c r="S18" t="n">
         <v>367.0</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
         <v>799.0</v>
       </c>
-      <c r="M18" t="n">
+      <c r="U18" t="n">
         <v>446.0</v>
       </c>
-      <c r="N18" t="n">
+      <c r="V18" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="19">
@@ -829,8 +2566,74 @@
       <c r="E19" t="n">
         <v>1127.0</v>
       </c>
+      <c r="F19" t="n">
+        <v>1368.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N19" t="n">
+        <v>622.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>663.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>592.0</v>
+      </c>
+      <c r="V19" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.97</v>
       </c>
     </row>
     <row r="20">
@@ -855,8 +2658,74 @@
       <c r="E20" t="n">
         <v>1084.0</v>
       </c>
+      <c r="F20" t="n">
+        <v>1707.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
       <c r="N20" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>807.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>490.0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="V20" t="n">
         <v>3.0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.22</v>
       </c>
     </row>
     <row r="21">
@@ -882,31 +2751,73 @@
         <v>1024.0</v>
       </c>
       <c r="F21" t="n">
+        <v>29292.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>351.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="O21" t="n">
         <v>316.0</v>
       </c>
-      <c r="H21" t="n">
+      <c r="P21" t="n">
         <v>853.0</v>
       </c>
-      <c r="I21" t="n">
+      <c r="Q21" t="n">
         <v>564.0</v>
       </c>
-      <c r="J21" t="n">
+      <c r="R21" t="n">
         <v>177.0</v>
       </c>
-      <c r="K21" t="n">
+      <c r="S21" t="n">
         <v>459.0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
         <v>514.0</v>
       </c>
-      <c r="M21" t="n">
+      <c r="U21" t="n">
         <v>612.0</v>
       </c>
-      <c r="N21" t="n">
+      <c r="V21" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="22">
@@ -932,31 +2843,73 @@
         <v>1002.0</v>
       </c>
       <c r="F22" t="n">
+        <v>3325.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>742.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="O22" t="n">
         <v>725.0</v>
       </c>
-      <c r="H22" t="n">
+      <c r="P22" t="n">
         <v>702.0</v>
       </c>
-      <c r="I22" t="n">
+      <c r="Q22" t="n">
         <v>850.0</v>
       </c>
-      <c r="J22" t="n">
+      <c r="R22" t="n">
         <v>20.0</v>
       </c>
-      <c r="K22" t="n">
+      <c r="S22" t="n">
         <v>575.0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
         <v>867.0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="U22" t="n">
         <v>544.0</v>
       </c>
-      <c r="N22" t="n">
+      <c r="V22" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="23">
@@ -981,8 +2934,74 @@
       <c r="E23" t="n">
         <v>1025.0</v>
       </c>
+      <c r="F23" t="n">
+        <v>865.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
       <c r="N23" t="n">
+        <v>458.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>345.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>833.0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>478.0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>346.0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="V23" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="24">
@@ -1008,31 +3027,73 @@
         <v>1026.0</v>
       </c>
       <c r="F24" t="n">
+        <v>3594.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>358.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="O24" t="n">
         <v>475.0</v>
       </c>
-      <c r="H24" t="n">
+      <c r="P24" t="n">
         <v>171.0</v>
       </c>
-      <c r="I24" t="n">
+      <c r="Q24" t="n">
         <v>704.0</v>
       </c>
-      <c r="J24" t="n">
+      <c r="R24" t="n">
         <v>177.0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="S24" t="n">
         <v>189.0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
         <v>907.0</v>
       </c>
-      <c r="M24" t="n">
+      <c r="U24" t="n">
         <v>77.0</v>
       </c>
-      <c r="N24" t="n">
+      <c r="V24" t="n">
         <v>3.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="25">
@@ -1048,41 +3109,83 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Escholzmatt-Marbach</t>
+          <t>Escholzmatt XXX</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n">
         <v>1010.0</v>
       </c>
       <c r="F25" t="n">
+        <v>4323.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>869.0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="O25" t="n">
         <v>854.0</v>
       </c>
-      <c r="H25" t="n">
+      <c r="P25" t="n">
         <v>832.0</v>
       </c>
-      <c r="I25" t="n">
+      <c r="Q25" t="n">
         <v>857.0</v>
       </c>
-      <c r="J25" t="n">
+      <c r="R25" t="n">
         <v>20.0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="S25" t="n">
         <v>575.0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
         <v>201.0</v>
       </c>
-      <c r="M25" t="n">
+      <c r="U25" t="n">
         <v>830.0</v>
       </c>
-      <c r="N25" t="n">
+      <c r="V25" t="n">
         <v>3.65</v>
+      </c>
+      <c r="W25" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="26">
@@ -1098,41 +3201,83 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Escholzmatt XXX</t>
+          <t>Escholzmatt-Marbach</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E26" t="n">
         <v>1010.0</v>
       </c>
       <c r="F26" t="n">
+        <v>4323.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>869.0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="O26" t="n">
         <v>854.0</v>
       </c>
-      <c r="H26" t="n">
+      <c r="P26" t="n">
         <v>832.0</v>
       </c>
-      <c r="I26" t="n">
+      <c r="Q26" t="n">
         <v>857.0</v>
       </c>
-      <c r="J26" t="n">
+      <c r="R26" t="n">
         <v>20.0</v>
       </c>
-      <c r="K26" t="n">
+      <c r="S26" t="n">
         <v>575.0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="T26" t="n">
         <v>201.0</v>
       </c>
-      <c r="M26" t="n">
+      <c r="U26" t="n">
         <v>830.0</v>
       </c>
-      <c r="N26" t="n">
+      <c r="V26" t="n">
         <v>3.65</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="27">
@@ -1158,31 +3303,73 @@
         <v>1010.0</v>
       </c>
       <c r="F27" t="n">
+        <v>4323.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>869.0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="O27" t="n">
         <v>854.0</v>
       </c>
-      <c r="H27" t="n">
+      <c r="P27" t="n">
         <v>832.0</v>
       </c>
-      <c r="I27" t="n">
+      <c r="Q27" t="n">
         <v>857.0</v>
       </c>
-      <c r="J27" t="n">
+      <c r="R27" t="n">
         <v>20.0</v>
       </c>
-      <c r="K27" t="n">
+      <c r="S27" t="n">
         <v>575.0</v>
       </c>
-      <c r="L27" t="n">
+      <c r="T27" t="n">
         <v>201.0</v>
       </c>
-      <c r="M27" t="n">
+      <c r="U27" t="n">
         <v>830.0</v>
       </c>
-      <c r="N27" t="n">
+      <c r="V27" t="n">
         <v>3.65</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1.09</v>
       </c>
     </row>
     <row r="28">
@@ -1208,31 +3395,73 @@
         <v>1128.0</v>
       </c>
       <c r="F28" t="n">
+        <v>2562.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>782.0</v>
       </c>
-      <c r="G28" t="n">
+      <c r="O28" t="n">
         <v>577.0</v>
       </c>
-      <c r="H28" t="n">
+      <c r="P28" t="n">
         <v>428.0</v>
       </c>
-      <c r="I28" t="n">
+      <c r="Q28" t="n">
         <v>859.0</v>
       </c>
-      <c r="J28" t="n">
+      <c r="R28" t="n">
         <v>10.0</v>
       </c>
-      <c r="K28" t="n">
+      <c r="S28" t="n">
         <v>499.0</v>
       </c>
-      <c r="L28" t="n">
+      <c r="T28" t="n">
         <v>757.0</v>
       </c>
-      <c r="M28" t="n">
+      <c r="U28" t="n">
         <v>775.0</v>
       </c>
-      <c r="N28" t="n">
+      <c r="V28" t="n">
         <v>3.75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="29">
@@ -1257,8 +3486,74 @@
       <c r="E29" t="n">
         <v>1129.0</v>
       </c>
+      <c r="F29" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N29" t="n">
+        <v>767.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>665.0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>675.0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>632.0</v>
+      </c>
+      <c r="V29" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="30">
@@ -1283,8 +3578,74 @@
       <c r="E30" t="n">
         <v>1004.0</v>
       </c>
+      <c r="F30" t="n">
+        <v>1880.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
       <c r="N30" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>589.0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>761.0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>852.0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>645.0</v>
+      </c>
+      <c r="V30" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="31">
@@ -1309,8 +3670,74 @@
       <c r="E31" t="n">
         <v>1130.0</v>
       </c>
+      <c r="F31" t="n">
+        <v>1088.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N31" t="n">
+        <v>746.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>651.0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>850.0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="V31" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="32">
@@ -1336,31 +3763,73 @@
         <v>1085.0</v>
       </c>
       <c r="F32" t="n">
+        <v>2750.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>534.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="O32" t="n">
         <v>367.0</v>
       </c>
-      <c r="H32" t="n">
+      <c r="P32" t="n">
         <v>183.0</v>
       </c>
-      <c r="I32" t="n">
+      <c r="Q32" t="n">
         <v>812.0</v>
       </c>
-      <c r="J32" t="n">
+      <c r="R32" t="n">
         <v>73.0</v>
       </c>
-      <c r="K32" t="n">
+      <c r="S32" t="n">
         <v>571.0</v>
       </c>
-      <c r="L32" t="n">
+      <c r="T32" t="n">
         <v>826.0</v>
       </c>
-      <c r="M32" t="n">
+      <c r="U32" t="n">
         <v>718.0</v>
       </c>
-      <c r="N32" t="n">
+      <c r="V32" t="n">
         <v>3.9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="33">
@@ -1385,8 +3854,74 @@
       <c r="E33" t="n">
         <v>1055.0</v>
       </c>
+      <c r="F33" t="n">
+        <v>1134.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N33" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>463.0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>568.0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="V33" t="n">
         <v>3.3</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="34">
@@ -1411,8 +3946,74 @@
       <c r="E34" t="n">
         <v>1056.0</v>
       </c>
+      <c r="F34" t="n">
+        <v>1034.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N34" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>817.0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="V34" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="35">
@@ -1437,8 +4038,74 @@
       <c r="E35" t="n">
         <v>1131.0</v>
       </c>
+      <c r="F35" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N35" t="n">
+        <v>706.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>652.0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>439.0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>514.0</v>
+      </c>
+      <c r="V35" t="n">
         <v>3.9</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.39</v>
       </c>
     </row>
     <row r="36">
@@ -1464,31 +4131,73 @@
         <v>1086.0</v>
       </c>
       <c r="F36" t="n">
+        <v>3104.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>583.0</v>
       </c>
-      <c r="G36" t="n">
+      <c r="O36" t="n">
         <v>512.0</v>
       </c>
-      <c r="H36" t="n">
+      <c r="P36" t="n">
         <v>533.0</v>
       </c>
-      <c r="I36" t="n">
+      <c r="Q36" t="n">
         <v>872.0</v>
       </c>
-      <c r="J36" t="n">
+      <c r="R36" t="n">
         <v>73.0</v>
       </c>
-      <c r="K36" t="n">
+      <c r="S36" t="n">
         <v>494.0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="T36" t="n">
         <v>877.0</v>
       </c>
-      <c r="M36" t="n">
+      <c r="U36" t="n">
         <v>553.0</v>
       </c>
-      <c r="N36" t="n">
+      <c r="V36" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="37">
@@ -1513,8 +4222,74 @@
       <c r="E37" t="n">
         <v>1005.0</v>
       </c>
+      <c r="F37" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
       <c r="N37" t="n">
+        <v>637.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>696.0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>848.0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>821.0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>502.0</v>
+      </c>
+      <c r="V37" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="38">
@@ -1539,8 +4314,74 @@
       <c r="E38" t="n">
         <v>1132.0</v>
       </c>
+      <c r="F38" t="n">
+        <v>1869.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N38" t="n">
+        <v>799.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>699.0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>884.0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>615.0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="V38" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W38" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="39">
@@ -1566,31 +4407,73 @@
         <v>1088.0</v>
       </c>
       <c r="F39" t="n">
+        <v>2055.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>172.0</v>
       </c>
-      <c r="G39" t="n">
+      <c r="O39" t="n">
         <v>141.0</v>
       </c>
-      <c r="H39" t="n">
+      <c r="P39" t="n">
         <v>49.0</v>
       </c>
-      <c r="I39" t="n">
+      <c r="Q39" t="n">
         <v>791.0</v>
       </c>
-      <c r="J39" t="n">
+      <c r="R39" t="n">
         <v>73.0</v>
       </c>
-      <c r="K39" t="n">
+      <c r="S39" t="n">
         <v>367.0</v>
       </c>
-      <c r="L39" t="n">
+      <c r="T39" t="n">
         <v>701.0</v>
       </c>
-      <c r="M39" t="n">
+      <c r="U39" t="n">
         <v>108.0</v>
       </c>
-      <c r="N39" t="n">
+      <c r="V39" t="n">
         <v>3.35</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1616,31 +4499,73 @@
         <v>1030.0</v>
       </c>
       <c r="F40" t="n">
+        <v>5069.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>316.0</v>
       </c>
-      <c r="G40" t="n">
+      <c r="O40" t="n">
         <v>78.0</v>
       </c>
-      <c r="H40" t="n">
+      <c r="P40" t="n">
         <v>271.0</v>
       </c>
-      <c r="I40" t="n">
+      <c r="Q40" t="n">
         <v>812.0</v>
       </c>
-      <c r="J40" t="n">
+      <c r="R40" t="n">
         <v>177.0</v>
       </c>
-      <c r="K40" t="n">
+      <c r="S40" t="n">
         <v>521.0</v>
       </c>
-      <c r="L40" t="n">
+      <c r="T40" t="n">
         <v>116.0</v>
       </c>
-      <c r="M40" t="n">
+      <c r="U40" t="n">
         <v>503.0</v>
       </c>
-      <c r="N40" t="n">
+      <c r="V40" t="n">
         <v>3.65</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="41">
@@ -1666,31 +4591,73 @@
         <v>1031.0</v>
       </c>
       <c r="F41" t="n">
+        <v>9401.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>410.0</v>
       </c>
-      <c r="G41" t="n">
+      <c r="O41" t="n">
         <v>181.0</v>
       </c>
-      <c r="H41" t="n">
+      <c r="P41" t="n">
         <v>445.0</v>
       </c>
-      <c r="I41" t="n">
+      <c r="Q41" t="n">
         <v>795.0</v>
       </c>
-      <c r="J41" t="n">
+      <c r="R41" t="n">
         <v>177.0</v>
       </c>
-      <c r="K41" t="n">
+      <c r="S41" t="n">
         <v>468.0</v>
       </c>
-      <c r="L41" t="n">
+      <c r="T41" t="n">
         <v>284.0</v>
       </c>
-      <c r="M41" t="n">
+      <c r="U41" t="n">
         <v>723.0</v>
       </c>
-      <c r="N41" t="n">
+      <c r="V41" t="n">
         <v>3.7</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="42">
@@ -1716,31 +4683,73 @@
         <v>1032.0</v>
       </c>
       <c r="F42" t="n">
+        <v>2481.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>744.0</v>
       </c>
-      <c r="G42" t="n">
+      <c r="O42" t="n">
         <v>754.0</v>
       </c>
-      <c r="H42" t="n">
+      <c r="P42" t="n">
         <v>297.0</v>
       </c>
-      <c r="I42" t="n">
+      <c r="Q42" t="n">
         <v>848.0</v>
       </c>
-      <c r="J42" t="n">
+      <c r="R42" t="n">
         <v>177.0</v>
       </c>
-      <c r="K42" t="n">
+      <c r="S42" t="n">
         <v>543.0</v>
       </c>
-      <c r="L42" t="n">
+      <c r="T42" t="n">
         <v>838.0</v>
       </c>
-      <c r="M42" t="n">
+      <c r="U42" t="n">
         <v>419.0</v>
       </c>
-      <c r="N42" t="n">
+      <c r="V42" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W42" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.46</v>
       </c>
     </row>
     <row r="43">
@@ -1765,8 +4774,74 @@
       <c r="E43" t="n">
         <v>1057.0</v>
       </c>
+      <c r="F43" t="n">
+        <v>381.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N43" t="n">
+        <v>559.0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>359.0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>663.0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>789.0</v>
+      </c>
+      <c r="V43" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="44">
@@ -1792,31 +4867,73 @@
         <v>1058.0</v>
       </c>
       <c r="F44" t="n">
+        <v>13813.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>35.0</v>
       </c>
-      <c r="G44" t="n">
+      <c r="O44" t="n">
         <v>29.0</v>
       </c>
-      <c r="H44" t="n">
+      <c r="P44" t="n">
         <v>450.0</v>
       </c>
-      <c r="I44" t="n">
+      <c r="Q44" t="n">
         <v>525.0</v>
       </c>
-      <c r="J44" t="n">
+      <c r="R44" t="n">
         <v>273.0</v>
       </c>
-      <c r="K44" t="n">
+      <c r="S44" t="n">
         <v>196.0</v>
       </c>
-      <c r="L44" t="n">
+      <c r="T44" t="n">
         <v>407.0</v>
       </c>
-      <c r="M44" t="n">
+      <c r="U44" t="n">
         <v>32.0</v>
       </c>
-      <c r="N44" t="n">
+      <c r="V44" t="n">
         <v>3.15</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="45">
@@ -1842,31 +4959,73 @@
         <v>1033.0</v>
       </c>
       <c r="F45" t="n">
+        <v>2429.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>559.0</v>
       </c>
-      <c r="G45" t="n">
+      <c r="O45" t="n">
         <v>422.0</v>
       </c>
-      <c r="H45" t="n">
+      <c r="P45" t="n">
         <v>285.0</v>
       </c>
-      <c r="I45" t="n">
+      <c r="Q45" t="n">
         <v>726.0</v>
       </c>
-      <c r="J45" t="n">
+      <c r="R45" t="n">
         <v>177.0</v>
       </c>
-      <c r="K45" t="n">
+      <c r="S45" t="n">
         <v>359.0</v>
       </c>
-      <c r="L45" t="n">
+      <c r="T45" t="n">
         <v>663.0</v>
       </c>
-      <c r="M45" t="n">
+      <c r="U45" t="n">
         <v>789.0</v>
       </c>
-      <c r="N45" t="n">
+      <c r="V45" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.36</v>
       </c>
     </row>
     <row r="46">
@@ -1892,31 +5051,73 @@
         <v>1089.0</v>
       </c>
       <c r="F46" t="n">
+        <v>2126.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>377.0</v>
       </c>
-      <c r="G46" t="n">
+      <c r="O46" t="n">
         <v>441.0</v>
       </c>
-      <c r="H46" t="n">
+      <c r="P46" t="n">
         <v>103.0</v>
       </c>
-      <c r="I46" t="n">
+      <c r="Q46" t="n">
         <v>827.0</v>
       </c>
-      <c r="J46" t="n">
+      <c r="R46" t="n">
         <v>73.0</v>
       </c>
-      <c r="K46" t="n">
+      <c r="S46" t="n">
         <v>524.0</v>
       </c>
-      <c r="L46" t="n">
+      <c r="T46" t="n">
         <v>542.0</v>
       </c>
-      <c r="M46" t="n">
+      <c r="U46" t="n">
         <v>429.0</v>
       </c>
-      <c r="N46" t="n">
+      <c r="V46" t="n">
         <v>3.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="47">
@@ -1942,31 +5143,73 @@
         <v>1059.0</v>
       </c>
       <c r="F47" t="n">
+        <v>27229.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>429.0</v>
       </c>
-      <c r="G47" t="n">
+      <c r="O47" t="n">
         <v>419.0</v>
       </c>
-      <c r="H47" t="n">
+      <c r="P47" t="n">
         <v>808.0</v>
       </c>
-      <c r="I47" t="n">
+      <c r="Q47" t="n">
         <v>459.0</v>
       </c>
-      <c r="J47" t="n">
+      <c r="R47" t="n">
         <v>273.0</v>
       </c>
-      <c r="K47" t="n">
+      <c r="S47" t="n">
         <v>434.0</v>
       </c>
-      <c r="L47" t="n">
+      <c r="T47" t="n">
         <v>571.0</v>
       </c>
-      <c r="M47" t="n">
+      <c r="U47" t="n">
         <v>356.0</v>
       </c>
-      <c r="N47" t="n">
+      <c r="V47" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.99</v>
       </c>
     </row>
     <row r="48">
@@ -1991,8 +5234,74 @@
       <c r="E48" t="n">
         <v>1135.0</v>
       </c>
+      <c r="F48" t="n">
+        <v>1307.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N48" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>892.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="V48" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="49">
@@ -2018,31 +5327,73 @@
         <v>1061.0</v>
       </c>
       <c r="F49" t="n">
+        <v>81057.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Stadt Luzern</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>LUZ</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Stadt</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>LS</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>80.0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="O49" t="n">
         <v>172.0</v>
       </c>
-      <c r="H49" t="n">
+      <c r="P49" t="n">
         <v>705.0</v>
       </c>
-      <c r="I49" t="n">
+      <c r="Q49" t="n">
         <v>170.0</v>
       </c>
-      <c r="J49" t="n">
+      <c r="R49" t="n">
         <v>874.0</v>
       </c>
-      <c r="K49" t="n">
+      <c r="S49" t="n">
         <v>339.0</v>
       </c>
-      <c r="L49" t="n">
+      <c r="T49" t="n">
         <v>102.0</v>
       </c>
-      <c r="M49" t="n">
+      <c r="U49" t="n">
         <v>29.0</v>
       </c>
-      <c r="N49" t="n">
+      <c r="V49" t="n">
         <v>3.45</v>
+      </c>
+      <c r="W49" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="50">
@@ -2068,31 +5419,73 @@
         <v>1062.0</v>
       </c>
       <c r="F50" t="n">
+        <v>6923.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>401.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="O50" t="n">
         <v>278.0</v>
       </c>
-      <c r="H50" t="n">
+      <c r="P50" t="n">
         <v>684.0</v>
       </c>
-      <c r="I50" t="n">
+      <c r="Q50" t="n">
         <v>629.0</v>
       </c>
-      <c r="J50" t="n">
+      <c r="R50" t="n">
         <v>273.0</v>
       </c>
-      <c r="K50" t="n">
+      <c r="S50" t="n">
         <v>472.0</v>
       </c>
-      <c r="L50" t="n">
+      <c r="T50" t="n">
         <v>334.0</v>
       </c>
-      <c r="M50" t="n">
+      <c r="U50" t="n">
         <v>725.0</v>
       </c>
-      <c r="N50" t="n">
+      <c r="V50" t="n">
         <v>3.65</v>
+      </c>
+      <c r="W50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="51">
@@ -2117,8 +5510,74 @@
       <c r="E51" t="n">
         <v>1091.0</v>
       </c>
+      <c r="F51" t="n">
+        <v>1271.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
       <c r="N51" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>388.0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>379.0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>753.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>633.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="V51" t="n">
         <v>3.7</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4.01</v>
       </c>
     </row>
     <row r="52">
@@ -2144,31 +5603,73 @@
         <v>1063.0</v>
       </c>
       <c r="F52" t="n">
+        <v>6775.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1.0</v>
       </c>
-      <c r="G52" t="n">
+      <c r="O52" t="n">
         <v>21.0</v>
       </c>
-      <c r="H52" t="n">
+      <c r="P52" t="n">
         <v>95.0</v>
       </c>
-      <c r="I52" t="n">
+      <c r="Q52" t="n">
         <v>473.0</v>
       </c>
-      <c r="J52" t="n">
+      <c r="R52" t="n">
         <v>273.0</v>
       </c>
-      <c r="K52" t="n">
+      <c r="S52" t="n">
         <v>29.0</v>
       </c>
-      <c r="L52" t="n">
+      <c r="T52" t="n">
         <v>59.0</v>
       </c>
-      <c r="M52" t="n">
+      <c r="U52" t="n">
         <v>19.0</v>
       </c>
-      <c r="N52" t="n">
+      <c r="V52" t="n">
         <v>2.535</v>
+      </c>
+      <c r="W52" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.07</v>
       </c>
     </row>
     <row r="53">
@@ -2193,8 +5694,74 @@
       <c r="E53" t="n">
         <v>1064.0</v>
       </c>
+      <c r="F53" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N53" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>304.0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>411.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>576.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="V53" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W53" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="54">
@@ -2220,31 +5787,73 @@
         <v>1136.0</v>
       </c>
       <c r="F54" t="n">
+        <v>2918.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>893.0</v>
       </c>
-      <c r="G54" t="n">
+      <c r="O54" t="n">
         <v>832.0</v>
       </c>
-      <c r="H54" t="n">
+      <c r="P54" t="n">
         <v>803.0</v>
       </c>
-      <c r="I54" t="n">
+      <c r="Q54" t="n">
         <v>876.0</v>
       </c>
-      <c r="J54" t="n">
+      <c r="R54" t="n">
         <v>10.0</v>
       </c>
-      <c r="K54" t="n">
+      <c r="S54" t="n">
         <v>698.0</v>
       </c>
-      <c r="L54" t="n">
+      <c r="T54" t="n">
         <v>763.0</v>
       </c>
-      <c r="M54" t="n">
+      <c r="U54" t="n">
         <v>826.0</v>
       </c>
-      <c r="N54" t="n">
+      <c r="V54" t="n">
         <v>3.9</v>
+      </c>
+      <c r="W54" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="55">
@@ -2270,31 +5879,73 @@
         <v>1137.0</v>
       </c>
       <c r="F55" t="n">
+        <v>2517.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>741.0</v>
       </c>
-      <c r="G55" t="n">
+      <c r="O55" t="n">
         <v>685.0</v>
       </c>
-      <c r="H55" t="n">
+      <c r="P55" t="n">
         <v>281.0</v>
       </c>
-      <c r="I55" t="n">
+      <c r="Q55" t="n">
         <v>617.0</v>
       </c>
-      <c r="J55" t="n">
+      <c r="R55" t="n">
         <v>10.0</v>
       </c>
-      <c r="K55" t="n">
+      <c r="S55" t="n">
         <v>410.0</v>
       </c>
-      <c r="L55" t="n">
+      <c r="T55" t="n">
         <v>852.0</v>
       </c>
-      <c r="M55" t="n">
+      <c r="U55" t="n">
         <v>706.0</v>
       </c>
-      <c r="N55" t="n">
+      <c r="V55" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="56">
@@ -2320,31 +5971,73 @@
         <v>1093.0</v>
       </c>
       <c r="F56" t="n">
+        <v>6484.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>198.0</v>
       </c>
-      <c r="G56" t="n">
+      <c r="O56" t="n">
         <v>29.0</v>
       </c>
-      <c r="H56" t="n">
+      <c r="P56" t="n">
         <v>199.0</v>
       </c>
-      <c r="I56" t="n">
+      <c r="Q56" t="n">
         <v>695.0</v>
       </c>
-      <c r="J56" t="n">
+      <c r="R56" t="n">
         <v>73.0</v>
       </c>
-      <c r="K56" t="n">
+      <c r="S56" t="n">
         <v>472.0</v>
       </c>
-      <c r="L56" t="n">
+      <c r="T56" t="n">
         <v>344.0</v>
       </c>
-      <c r="M56" t="n">
+      <c r="U56" t="n">
         <v>308.0</v>
       </c>
-      <c r="N56" t="n">
+      <c r="V56" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.04</v>
       </c>
     </row>
     <row r="57">
@@ -2370,31 +6063,73 @@
         <v>1094.0</v>
       </c>
       <c r="F57" t="n">
+        <v>3476.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>267.0</v>
       </c>
-      <c r="G57" t="n">
+      <c r="O57" t="n">
         <v>128.0</v>
       </c>
-      <c r="H57" t="n">
+      <c r="P57" t="n">
         <v>136.0</v>
       </c>
-      <c r="I57" t="n">
+      <c r="Q57" t="n">
         <v>798.0</v>
       </c>
-      <c r="J57" t="n">
+      <c r="R57" t="n">
         <v>73.0</v>
       </c>
-      <c r="K57" t="n">
+      <c r="S57" t="n">
         <v>459.0</v>
       </c>
-      <c r="L57" t="n">
+      <c r="T57" t="n">
         <v>69.0</v>
       </c>
-      <c r="M57" t="n">
+      <c r="U57" t="n">
         <v>37.0</v>
       </c>
-      <c r="N57" t="n">
+      <c r="V57" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W57" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="58">
@@ -2420,31 +6155,73 @@
         <v>1095.0</v>
       </c>
       <c r="F58" t="n">
+        <v>4062.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>297.0</v>
       </c>
-      <c r="G58" t="n">
+      <c r="O58" t="n">
         <v>106.0</v>
       </c>
-      <c r="H58" t="n">
+      <c r="P58" t="n">
         <v>73.0</v>
       </c>
-      <c r="I58" t="n">
+      <c r="Q58" t="n">
         <v>811.0</v>
       </c>
-      <c r="J58" t="n">
+      <c r="R58" t="n">
         <v>73.0</v>
       </c>
-      <c r="K58" t="n">
+      <c r="S58" t="n">
         <v>223.0</v>
       </c>
-      <c r="L58" t="n">
+      <c r="T58" t="n">
         <v>453.0</v>
       </c>
-      <c r="M58" t="n">
+      <c r="U58" t="n">
         <v>68.0</v>
       </c>
-      <c r="N58" t="n">
+      <c r="V58" t="n">
         <v>3.25</v>
+      </c>
+      <c r="W58" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="59">
@@ -2470,31 +6247,73 @@
         <v>1139.0</v>
       </c>
       <c r="F59" t="n">
+        <v>2304.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>610.0</v>
       </c>
-      <c r="G59" t="n">
+      <c r="O59" t="n">
         <v>607.0</v>
       </c>
-      <c r="H59" t="n">
+      <c r="P59" t="n">
         <v>426.0</v>
       </c>
-      <c r="I59" t="n">
+      <c r="Q59" t="n">
         <v>745.0</v>
       </c>
-      <c r="J59" t="n">
+      <c r="R59" t="n">
         <v>10.0</v>
       </c>
-      <c r="K59" t="n">
+      <c r="S59" t="n">
         <v>484.0</v>
       </c>
-      <c r="L59" t="n">
+      <c r="T59" t="n">
         <v>409.0</v>
       </c>
-      <c r="M59" t="n">
+      <c r="U59" t="n">
         <v>288.0</v>
       </c>
-      <c r="N59" t="n">
+      <c r="V59" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W59" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="60">
@@ -2520,31 +6339,73 @@
         <v>1037.0</v>
       </c>
       <c r="F60" t="n">
+        <v>2533.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>194.0</v>
       </c>
-      <c r="G60" t="n">
+      <c r="O60" t="n">
         <v>20.0</v>
       </c>
-      <c r="H60" t="n">
+      <c r="P60" t="n">
         <v>37.0</v>
       </c>
-      <c r="I60" t="n">
+      <c r="Q60" t="n">
         <v>776.0</v>
       </c>
-      <c r="J60" t="n">
+      <c r="R60" t="n">
         <v>177.0</v>
       </c>
-      <c r="K60" t="n">
+      <c r="S60" t="n">
         <v>417.0</v>
       </c>
-      <c r="L60" t="n">
+      <c r="T60" t="n">
         <v>782.0</v>
       </c>
-      <c r="M60" t="n">
+      <c r="U60" t="n">
         <v>711.0</v>
       </c>
-      <c r="N60" t="n">
+      <c r="V60" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="61">
@@ -2570,31 +6431,73 @@
         <v>1140.0</v>
       </c>
       <c r="F61" t="n">
+        <v>6892.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>712.0</v>
       </c>
-      <c r="G61" t="n">
+      <c r="O61" t="n">
         <v>780.0</v>
       </c>
-      <c r="H61" t="n">
+      <c r="P61" t="n">
         <v>752.0</v>
       </c>
-      <c r="I61" t="n">
+      <c r="Q61" t="n">
         <v>323.0</v>
       </c>
-      <c r="J61" t="n">
+      <c r="R61" t="n">
         <v>10.0</v>
       </c>
-      <c r="K61" t="n">
+      <c r="S61" t="n">
         <v>575.0</v>
       </c>
-      <c r="L61" t="n">
+      <c r="T61" t="n">
         <v>377.0</v>
       </c>
-      <c r="M61" t="n">
+      <c r="U61" t="n">
         <v>506.0</v>
       </c>
-      <c r="N61" t="n">
+      <c r="V61" t="n">
         <v>3.9</v>
+      </c>
+      <c r="W61" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="62">
@@ -2610,41 +6513,83 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Pfeffikon XXX</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E62" t="n">
         <v>1097.0</v>
       </c>
       <c r="F62" t="n">
+        <v>3110.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>771.0</v>
       </c>
-      <c r="G62" t="n">
+      <c r="O62" t="n">
         <v>721.0</v>
       </c>
-      <c r="H62" t="n">
+      <c r="P62" t="n">
         <v>287.0</v>
       </c>
-      <c r="I62" t="n">
+      <c r="Q62" t="n">
         <v>861.0</v>
       </c>
-      <c r="J62" t="n">
+      <c r="R62" t="n">
         <v>73.0</v>
       </c>
-      <c r="K62" t="n">
+      <c r="S62" t="n">
         <v>543.0</v>
       </c>
-      <c r="L62" t="n">
+      <c r="T62" t="n">
         <v>769.0</v>
       </c>
-      <c r="M62" t="n">
+      <c r="U62" t="n">
         <v>627.0</v>
       </c>
-      <c r="N62" t="n">
+      <c r="V62" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W62" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="63">
@@ -2660,41 +6605,83 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Pfeffikon XXX</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E63" t="n">
         <v>1097.0</v>
       </c>
       <c r="F63" t="n">
+        <v>3110.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>771.0</v>
       </c>
-      <c r="G63" t="n">
+      <c r="O63" t="n">
         <v>721.0</v>
       </c>
-      <c r="H63" t="n">
+      <c r="P63" t="n">
         <v>287.0</v>
       </c>
-      <c r="I63" t="n">
+      <c r="Q63" t="n">
         <v>861.0</v>
       </c>
-      <c r="J63" t="n">
+      <c r="R63" t="n">
         <v>73.0</v>
       </c>
-      <c r="K63" t="n">
+      <c r="S63" t="n">
         <v>543.0</v>
       </c>
-      <c r="L63" t="n">
+      <c r="T63" t="n">
         <v>769.0</v>
       </c>
-      <c r="M63" t="n">
+      <c r="U63" t="n">
         <v>627.0</v>
       </c>
-      <c r="N63" t="n">
+      <c r="V63" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W63" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1.51</v>
       </c>
     </row>
     <row r="64">
@@ -2719,8 +6706,74 @@
       <c r="E64" t="n">
         <v>1142.0</v>
       </c>
+      <c r="F64" t="n">
+        <v>647.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N64" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>607.0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>426.0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>745.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>288.0</v>
+      </c>
+      <c r="V64" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W64" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="65">
@@ -2745,8 +6798,74 @@
       <c r="E65" t="n">
         <v>1007.0</v>
       </c>
+      <c r="F65" t="n">
+        <v>663.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
       <c r="N65" t="n">
+        <v>717.0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>612.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>491.0</v>
+      </c>
+      <c r="V65" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W65" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="66">
@@ -2772,31 +6891,73 @@
         <v>1065.0</v>
       </c>
       <c r="F66" t="n">
+        <v>4736.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>468.0</v>
       </c>
-      <c r="G66" t="n">
+      <c r="O66" t="n">
         <v>504.0</v>
       </c>
-      <c r="H66" t="n">
+      <c r="P66" t="n">
         <v>690.0</v>
       </c>
-      <c r="I66" t="n">
+      <c r="Q66" t="n">
         <v>462.0</v>
       </c>
-      <c r="J66" t="n">
+      <c r="R66" t="n">
         <v>273.0</v>
       </c>
-      <c r="K66" t="n">
+      <c r="S66" t="n">
         <v>397.0</v>
       </c>
-      <c r="L66" t="n">
+      <c r="T66" t="n">
         <v>472.0</v>
       </c>
-      <c r="M66" t="n">
+      <c r="U66" t="n">
         <v>192.0</v>
       </c>
-      <c r="N66" t="n">
+      <c r="V66" t="n">
         <v>3.4</v>
+      </c>
+      <c r="W66" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="67">
@@ -2822,31 +6983,73 @@
         <v>1040.0</v>
       </c>
       <c r="F67" t="n">
+        <v>7246.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>AGK</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>250.0</v>
       </c>
-      <c r="G67" t="n">
+      <c r="O67" t="n">
         <v>163.0</v>
       </c>
-      <c r="H67" t="n">
+      <c r="P67" t="n">
         <v>277.0</v>
       </c>
-      <c r="I67" t="n">
+      <c r="Q67" t="n">
         <v>513.0</v>
       </c>
-      <c r="J67" t="n">
+      <c r="R67" t="n">
         <v>177.0</v>
       </c>
-      <c r="K67" t="n">
+      <c r="S67" t="n">
         <v>367.0</v>
       </c>
-      <c r="L67" t="n">
+      <c r="T67" t="n">
         <v>511.0</v>
       </c>
-      <c r="M67" t="n">
+      <c r="U67" t="n">
         <v>243.0</v>
       </c>
-      <c r="N67" t="n">
+      <c r="V67" t="n">
         <v>3.5</v>
+      </c>
+      <c r="W67" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="X67" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="68">
@@ -2872,31 +7075,73 @@
         <v>1098.0</v>
       </c>
       <c r="F68" t="n">
+        <v>6812.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>400.0</v>
       </c>
-      <c r="G68" t="n">
+      <c r="O68" t="n">
         <v>158.0</v>
       </c>
-      <c r="H68" t="n">
+      <c r="P68" t="n">
         <v>577.0</v>
       </c>
-      <c r="I68" t="n">
+      <c r="Q68" t="n">
         <v>840.0</v>
       </c>
-      <c r="J68" t="n">
+      <c r="R68" t="n">
         <v>73.0</v>
       </c>
-      <c r="K68" t="n">
+      <c r="S68" t="n">
         <v>537.0</v>
       </c>
-      <c r="L68" t="n">
+      <c r="T68" t="n">
         <v>492.0</v>
       </c>
-      <c r="M68" t="n">
+      <c r="U68" t="n">
         <v>777.0</v>
       </c>
-      <c r="N68" t="n">
+      <c r="V68" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W68" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="69">
@@ -2921,8 +7166,74 @@
       <c r="E69" t="n">
         <v>1039.0</v>
       </c>
+      <c r="F69" t="n">
+        <v>1669.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
       <c r="N69" t="n">
+        <v>338.0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>806.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="V69" t="n">
         <v>3.75</v>
+      </c>
+      <c r="W69" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="X69" t="n">
+        <v>1.26</v>
       </c>
     </row>
     <row r="70">
@@ -2948,31 +7259,73 @@
         <v>1099.0</v>
       </c>
       <c r="F70" t="n">
+        <v>2731.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>136.0</v>
       </c>
-      <c r="G70" t="n">
+      <c r="O70" t="n">
         <v>18.0</v>
       </c>
-      <c r="H70" t="n">
+      <c r="P70" t="n">
         <v>102.0</v>
       </c>
-      <c r="I70" t="n">
+      <c r="Q70" t="n">
         <v>830.0</v>
       </c>
-      <c r="J70" t="n">
+      <c r="R70" t="n">
         <v>73.0</v>
       </c>
-      <c r="K70" t="n">
+      <c r="S70" t="n">
         <v>86.0</v>
       </c>
-      <c r="L70" t="n">
+      <c r="T70" t="n">
         <v>610.0</v>
       </c>
-      <c r="M70" t="n">
+      <c r="U70" t="n">
         <v>62.0</v>
       </c>
-      <c r="N70" t="n">
+      <c r="V70" t="n">
         <v>2.85</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row r="71">
@@ -2997,8 +7350,74 @@
       <c r="E71" t="n">
         <v>1100.0</v>
       </c>
+      <c r="F71" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
       <c r="N71" t="n">
+        <v>740.0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>665.0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>404.0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>516.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>770.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="V71" t="n">
         <v>3.35</v>
+      </c>
+      <c r="W71" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="72">
@@ -3023,8 +7442,74 @@
       <c r="E72" t="n">
         <v>1041.0</v>
       </c>
+      <c r="F72" t="n">
+        <v>1004.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Wahlkreis Hochdorf</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Amt Hochdorf</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
       <c r="N72" t="n">
+        <v>316.0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>521.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>503.0</v>
+      </c>
+      <c r="V72" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W72" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.09</v>
       </c>
     </row>
     <row r="73">
@@ -3049,8 +7534,74 @@
       <c r="E73" t="n">
         <v>1066.0</v>
       </c>
+      <c r="F73" t="n">
+        <v>1686.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N73" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>474.0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>731.0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="V73" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W73" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="74">
@@ -3066,41 +7617,83 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Ohmstal XXX</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E74" t="n">
         <v>1143.0</v>
       </c>
       <c r="F74" t="n">
+        <v>4095.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>772.0</v>
       </c>
-      <c r="G74" t="n">
+      <c r="O74" t="n">
         <v>591.0</v>
       </c>
-      <c r="H74" t="n">
+      <c r="P74" t="n">
         <v>333.0</v>
       </c>
-      <c r="I74" t="n">
+      <c r="Q74" t="n">
         <v>814.0</v>
       </c>
-      <c r="J74" t="n">
+      <c r="R74" t="n">
         <v>10.0</v>
       </c>
-      <c r="K74" t="n">
+      <c r="S74" t="n">
         <v>579.0</v>
       </c>
-      <c r="L74" t="n">
+      <c r="T74" t="n">
         <v>837.0</v>
       </c>
-      <c r="M74" t="n">
+      <c r="U74" t="n">
         <v>657.0</v>
       </c>
-      <c r="N74" t="n">
+      <c r="V74" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W74" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="75">
@@ -3116,41 +7709,83 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ohmstal XXX</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E75" t="n">
         <v>1143.0</v>
       </c>
       <c r="F75" t="n">
+        <v>4095.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>772.0</v>
       </c>
-      <c r="G75" t="n">
+      <c r="O75" t="n">
         <v>591.0</v>
       </c>
-      <c r="H75" t="n">
+      <c r="P75" t="n">
         <v>333.0</v>
       </c>
-      <c r="I75" t="n">
+      <c r="Q75" t="n">
         <v>814.0</v>
       </c>
-      <c r="J75" t="n">
+      <c r="R75" t="n">
         <v>10.0</v>
       </c>
-      <c r="K75" t="n">
+      <c r="S75" t="n">
         <v>579.0</v>
       </c>
-      <c r="L75" t="n">
+      <c r="T75" t="n">
         <v>837.0</v>
       </c>
-      <c r="M75" t="n">
+      <c r="U75" t="n">
         <v>657.0</v>
       </c>
-      <c r="N75" t="n">
+      <c r="V75" t="n">
         <v>3.85</v>
+      </c>
+      <c r="W75" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="76">
@@ -3176,31 +7811,73 @@
         <v>1008.0</v>
       </c>
       <c r="F76" t="n">
+        <v>4111.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ENT</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>531.0</v>
       </c>
-      <c r="G76" t="n">
+      <c r="O76" t="n">
         <v>323.0</v>
       </c>
-      <c r="H76" t="n">
+      <c r="P76" t="n">
         <v>689.0</v>
       </c>
-      <c r="I76" t="n">
+      <c r="Q76" t="n">
         <v>846.0</v>
       </c>
-      <c r="J76" t="n">
+      <c r="R76" t="n">
         <v>20.0</v>
       </c>
-      <c r="K76" t="n">
+      <c r="S76" t="n">
         <v>524.0</v>
       </c>
-      <c r="L76" t="n">
+      <c r="T76" t="n">
         <v>775.0</v>
       </c>
-      <c r="M76" t="n">
+      <c r="U76" t="n">
         <v>459.0</v>
       </c>
-      <c r="N76" t="n">
+      <c r="V76" t="n">
         <v>3.75</v>
+      </c>
+      <c r="W76" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.51</v>
       </c>
     </row>
     <row r="77">
@@ -3226,31 +7903,73 @@
         <v>1102.0</v>
       </c>
       <c r="F77" t="n">
+        <v>4171.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>61.0</v>
       </c>
-      <c r="G77" t="n">
+      <c r="O77" t="n">
         <v>163.0</v>
       </c>
-      <c r="H77" t="n">
+      <c r="P77" t="n">
         <v>104.0</v>
       </c>
-      <c r="I77" t="n">
+      <c r="Q77" t="n">
         <v>736.0</v>
       </c>
-      <c r="J77" t="n">
+      <c r="R77" t="n">
         <v>73.0</v>
       </c>
-      <c r="K77" t="n">
+      <c r="S77" t="n">
         <v>468.0</v>
       </c>
-      <c r="L77" t="n">
+      <c r="T77" t="n">
         <v>285.0</v>
       </c>
-      <c r="M77" t="n">
+      <c r="U77" t="n">
         <v>112.0</v>
       </c>
-      <c r="N77" t="n">
+      <c r="V77" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W77" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="78">
@@ -3276,31 +7995,73 @@
         <v>1103.0</v>
       </c>
       <c r="F78" t="n">
+        <v>9390.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>321.0</v>
       </c>
-      <c r="G78" t="n">
+      <c r="O78" t="n">
         <v>343.0</v>
       </c>
-      <c r="H78" t="n">
+      <c r="P78" t="n">
         <v>488.0</v>
       </c>
-      <c r="I78" t="n">
+      <c r="Q78" t="n">
         <v>685.0</v>
       </c>
-      <c r="J78" t="n">
+      <c r="R78" t="n">
         <v>73.0</v>
       </c>
-      <c r="K78" t="n">
+      <c r="S78" t="n">
         <v>339.0</v>
       </c>
-      <c r="L78" t="n">
+      <c r="T78" t="n">
         <v>58.0</v>
       </c>
-      <c r="M78" t="n">
+      <c r="U78" t="n">
         <v>15.0</v>
       </c>
-      <c r="N78" t="n">
+      <c r="V78" t="n">
         <v>3.45</v>
+      </c>
+      <c r="W78" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="79">
@@ -3326,31 +8087,73 @@
         <v>1104.0</v>
       </c>
       <c r="F79" t="n">
+        <v>4462.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Wahlkreis Sursee</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>777.0</v>
       </c>
-      <c r="G79" t="n">
+      <c r="O79" t="n">
         <v>733.0</v>
       </c>
-      <c r="H79" t="n">
+      <c r="P79" t="n">
         <v>506.0</v>
       </c>
-      <c r="I79" t="n">
+      <c r="Q79" t="n">
         <v>832.0</v>
       </c>
-      <c r="J79" t="n">
+      <c r="R79" t="n">
         <v>73.0</v>
       </c>
-      <c r="K79" t="n">
+      <c r="S79" t="n">
         <v>326.0</v>
       </c>
-      <c r="L79" t="n">
+      <c r="T79" t="n">
         <v>818.0</v>
       </c>
-      <c r="M79" t="n">
+      <c r="U79" t="n">
         <v>510.0</v>
       </c>
-      <c r="N79" t="n">
+      <c r="V79" t="n">
         <v>3.35</v>
+      </c>
+      <c r="W79" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="80">
@@ -3376,31 +8179,73 @@
         <v>1067.0</v>
       </c>
       <c r="F80" t="n">
+        <v>2262.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>AGG</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>220.0</v>
       </c>
-      <c r="G80" t="n">
+      <c r="O80" t="n">
         <v>104.0</v>
       </c>
-      <c r="H80" t="n">
+      <c r="P80" t="n">
         <v>30.0</v>
       </c>
-      <c r="I80" t="n">
+      <c r="Q80" t="n">
         <v>580.0</v>
       </c>
-      <c r="J80" t="n">
+      <c r="R80" t="n">
         <v>273.0</v>
       </c>
-      <c r="K80" t="n">
+      <c r="S80" t="n">
         <v>424.0</v>
       </c>
-      <c r="L80" t="n">
+      <c r="T80" t="n">
         <v>680.0</v>
       </c>
-      <c r="M80" t="n">
+      <c r="U80" t="n">
         <v>169.0</v>
       </c>
-      <c r="N80" t="n">
+      <c r="V80" t="n">
         <v>3.55</v>
+      </c>
+      <c r="W80" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="81">
@@ -3425,8 +8270,74 @@
       <c r="E81" t="n">
         <v>1145.0</v>
       </c>
+      <c r="F81" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N81" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>681.0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>519.0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>368.0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>510.0</v>
+      </c>
+      <c r="V81" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="X81" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="82">
@@ -3451,8 +8362,74 @@
       <c r="E82" t="n">
         <v>1068.0</v>
       </c>
+      <c r="F82" t="n">
+        <v>1271.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
       <c r="N82" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>817.0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="V82" t="n">
         <v>2.9</v>
+      </c>
+      <c r="W82" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="83">
@@ -3478,31 +8455,73 @@
         <v>1146.0</v>
       </c>
       <c r="F83" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>561.0</v>
       </c>
-      <c r="G83" t="n">
+      <c r="O83" t="n">
         <v>493.0</v>
       </c>
-      <c r="H83" t="n">
+      <c r="P83" t="n">
         <v>551.0</v>
       </c>
-      <c r="I83" t="n">
+      <c r="Q83" t="n">
         <v>720.0</v>
       </c>
-      <c r="J83" t="n">
+      <c r="R83" t="n">
         <v>10.0</v>
       </c>
-      <c r="K83" t="n">
+      <c r="S83" t="n">
         <v>505.0</v>
       </c>
-      <c r="L83" t="n">
+      <c r="T83" t="n">
         <v>834.0</v>
       </c>
-      <c r="M83" t="n">
+      <c r="U83" t="n">
         <v>606.0</v>
       </c>
-      <c r="N83" t="n">
+      <c r="V83" t="n">
         <v>3.75</v>
+      </c>
+      <c r="W83" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="84">
@@ -3528,31 +8547,73 @@
         <v>1069.0</v>
       </c>
       <c r="F84" t="n">
+        <v>4355.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>ROR</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Wahlkreis Luzern-Land</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>LL</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Amt Luzern</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>148.0</v>
       </c>
-      <c r="G84" t="n">
+      <c r="O84" t="n">
         <v>416.0</v>
       </c>
-      <c r="H84" t="n">
+      <c r="P84" t="n">
         <v>160.0</v>
       </c>
-      <c r="I84" t="n">
+      <c r="Q84" t="n">
         <v>817.0</v>
       </c>
-      <c r="J84" t="n">
+      <c r="R84" t="n">
         <v>273.0</v>
       </c>
-      <c r="K84" t="n">
+      <c r="S84" t="n">
         <v>192.0</v>
       </c>
-      <c r="L84" t="n">
+      <c r="T84" t="n">
         <v>50.0</v>
       </c>
-      <c r="M84" t="n">
+      <c r="U84" t="n">
         <v>41.0</v>
       </c>
-      <c r="N84" t="n">
+      <c r="V84" t="n">
         <v>3.05</v>
+      </c>
+      <c r="W84" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="85">
@@ -3578,31 +8639,73 @@
         <v>1009.0</v>
       </c>
       <c r="F85" t="n">
+        <v>2035.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Amt Entlebuch</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>678.0</v>
       </c>
-      <c r="G85" t="n">
+      <c r="O85" t="n">
         <v>541.0</v>
       </c>
-      <c r="H85" t="n">
+      <c r="P85" t="n">
         <v>772.0</v>
       </c>
-      <c r="I85" t="n">
+      <c r="Q85" t="n">
         <v>837.0</v>
       </c>
-      <c r="J85" t="n">
+      <c r="R85" t="n">
         <v>20.0</v>
       </c>
-      <c r="K85" t="n">
+      <c r="S85" t="n">
         <v>613.0</v>
       </c>
-      <c r="L85" t="n">
+      <c r="T85" t="n">
         <v>585.0</v>
       </c>
-      <c r="M85" t="n">
+      <c r="U85" t="n">
         <v>305.0</v>
       </c>
-      <c r="N85" t="n">
+      <c r="V85" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="86">
@@ -3627,8 +8730,74 @@
       <c r="E86" t="n">
         <v>1147.0</v>
       </c>
+      <c r="F86" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>WIG</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
       <c r="N86" t="n">
+        <v>712.0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>780.0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>575.0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="V86" t="n">
         <v>4.1</v>
+      </c>
+      <c r="W86" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="87">
@@ -3654,31 +8823,73 @@
         <v>1151.0</v>
       </c>
       <c r="F87" t="n">
+        <v>7623.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>705.0</v>
       </c>
-      <c r="G87" t="n">
+      <c r="O87" t="n">
         <v>623.0</v>
       </c>
-      <c r="H87" t="n">
+      <c r="P87" t="n">
         <v>594.0</v>
       </c>
-      <c r="I87" t="n">
+      <c r="Q87" t="n">
         <v>892.0</v>
       </c>
-      <c r="J87" t="n">
+      <c r="R87" t="n">
         <v>10.0</v>
       </c>
-      <c r="K87" t="n">
+      <c r="S87" t="n">
         <v>532.0</v>
       </c>
-      <c r="L87" t="n">
+      <c r="T87" t="n">
         <v>223.0</v>
       </c>
-      <c r="M87" t="n">
+      <c r="U87" t="n">
         <v>413.0</v>
       </c>
-      <c r="N87" t="n">
+      <c r="V87" t="n">
         <v>3.8</v>
+      </c>
+      <c r="W87" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="88">
@@ -3704,31 +8915,73 @@
         <v>1107.0</v>
       </c>
       <c r="F88" t="n">
+        <v>4294.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Wahlkreis Entlebuch</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Amt Sursee</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>SU</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>726.0</v>
       </c>
-      <c r="G88" t="n">
+      <c r="O88" t="n">
         <v>627.0</v>
       </c>
-      <c r="H88" t="n">
+      <c r="P88" t="n">
         <v>822.0</v>
       </c>
-      <c r="I88" t="n">
+      <c r="Q88" t="n">
         <v>818.0</v>
       </c>
-      <c r="J88" t="n">
+      <c r="R88" t="n">
         <v>20.0</v>
       </c>
-      <c r="K88" t="n">
+      <c r="S88" t="n">
         <v>613.0</v>
       </c>
-      <c r="L88" t="n">
+      <c r="T88" t="n">
         <v>768.0</v>
       </c>
-      <c r="M88" t="n">
+      <c r="U88" t="n">
         <v>188.0</v>
       </c>
-      <c r="N88" t="n">
+      <c r="V88" t="n">
         <v>4.0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="89">
@@ -3754,35 +9007,77 @@
         <v>1150.0</v>
       </c>
       <c r="F89" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>WIL</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Wahlkreis Willisau</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Amt Willisau</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>WI</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>761.0</v>
       </c>
-      <c r="G89" t="n">
+      <c r="O89" t="n">
         <v>739.0</v>
       </c>
-      <c r="H89" t="n">
+      <c r="P89" t="n">
         <v>664.0</v>
       </c>
-      <c r="I89" t="n">
+      <c r="Q89" t="n">
         <v>843.0</v>
       </c>
-      <c r="J89" t="n">
+      <c r="R89" t="n">
         <v>10.0</v>
       </c>
-      <c r="K89" t="n">
+      <c r="S89" t="n">
         <v>505.0</v>
       </c>
-      <c r="L89" t="n">
+      <c r="T89" t="n">
         <v>512.0</v>
       </c>
-      <c r="M89" t="n">
+      <c r="U89" t="n">
         <v>607.0</v>
       </c>
-      <c r="N89" t="n">
+      <c r="V89" t="n">
         <v>3.6</v>
+      </c>
+      <c r="W89" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.05</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/data/output/BDA6_SCHULE_Gemeinden_LU_Roh.xlsx
+++ b/data/output/BDA6_SCHULE_Gemeinden_LU_Roh.xlsx
@@ -979,6 +979,11 @@
           <t>MaturaQuote</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>AuslaenderAnteil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1071,6 +1076,9 @@
       <c r="X2" t="n">
         <v>3.57</v>
       </c>
+      <c r="Y2" t="n">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1163,6 +1171,9 @@
       <c r="X3" t="n">
         <v>1.71</v>
       </c>
+      <c r="Y3" t="n">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1255,6 +1266,9 @@
       <c r="X4" t="n">
         <v>1.56</v>
       </c>
+      <c r="Y4" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1347,6 +1361,9 @@
       <c r="X5" t="n">
         <v>1.54</v>
       </c>
+      <c r="Y5" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1439,6 +1456,9 @@
       <c r="X6" t="n">
         <v>2.03</v>
       </c>
+      <c r="Y6" t="n">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1531,6 +1551,9 @@
       <c r="X7" t="n">
         <v>0.98</v>
       </c>
+      <c r="Y7" t="n">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1623,6 +1646,9 @@
       <c r="X8" t="n">
         <v>1.51</v>
       </c>
+      <c r="Y8" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1715,6 +1741,9 @@
       <c r="X9" t="n">
         <v>2.12</v>
       </c>
+      <c r="Y9" t="n">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1807,6 +1836,9 @@
       <c r="X10" t="n">
         <v>2.12</v>
       </c>
+      <c r="Y10" t="n">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1899,6 +1931,9 @@
       <c r="X11" t="n">
         <v>1.93</v>
       </c>
+      <c r="Y11" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1991,6 +2026,9 @@
       <c r="X12" t="n">
         <v>1.89</v>
       </c>
+      <c r="Y12" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2083,6 +2121,9 @@
       <c r="X13" t="n">
         <v>2.06</v>
       </c>
+      <c r="Y13" t="n">
+        <v>25.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2175,6 +2216,9 @@
       <c r="X14" t="n">
         <v>1.33</v>
       </c>
+      <c r="Y14" t="n">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2267,6 +2311,9 @@
       <c r="X15" t="n">
         <v>1.53</v>
       </c>
+      <c r="Y15" t="n">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2359,6 +2406,9 @@
       <c r="X16" t="n">
         <v>0.94</v>
       </c>
+      <c r="Y16" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2451,6 +2501,9 @@
       <c r="X17" t="n">
         <v>2.0</v>
       </c>
+      <c r="Y17" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2543,6 +2596,9 @@
       <c r="X18" t="n">
         <v>1.44</v>
       </c>
+      <c r="Y18" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2635,6 +2691,9 @@
       <c r="X19" t="n">
         <v>1.97</v>
       </c>
+      <c r="Y19" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2727,6 +2786,9 @@
       <c r="X20" t="n">
         <v>3.22</v>
       </c>
+      <c r="Y20" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2819,6 +2881,9 @@
       <c r="X21" t="n">
         <v>1.32</v>
       </c>
+      <c r="Y21" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2911,6 +2976,9 @@
       <c r="X22" t="n">
         <v>1.14</v>
       </c>
+      <c r="Y22" t="n">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3003,6 +3071,9 @@
       <c r="X23" t="n">
         <v>2.08</v>
       </c>
+      <c r="Y23" t="n">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3095,6 +3166,9 @@
       <c r="X24" t="n">
         <v>2.39</v>
       </c>
+      <c r="Y24" t="n">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3187,6 +3261,9 @@
       <c r="X25" t="n">
         <v>1.09</v>
       </c>
+      <c r="Y25" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3279,6 +3356,9 @@
       <c r="X26" t="n">
         <v>1.09</v>
       </c>
+      <c r="Y26" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3371,6 +3451,9 @@
       <c r="X27" t="n">
         <v>1.09</v>
       </c>
+      <c r="Y27" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3463,6 +3546,9 @@
       <c r="X28" t="n">
         <v>1.56</v>
       </c>
+      <c r="Y28" t="n">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3555,6 +3641,9 @@
       <c r="X29" t="n">
         <v>1.64</v>
       </c>
+      <c r="Y29" t="n">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3647,6 +3736,9 @@
       <c r="X30" t="n">
         <v>1.22</v>
       </c>
+      <c r="Y30" t="n">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3739,6 +3831,9 @@
       <c r="X31" t="n">
         <v>1.1</v>
       </c>
+      <c r="Y31" t="n">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3831,6 +3926,9 @@
       <c r="X32" t="n">
         <v>1.71</v>
       </c>
+      <c r="Y32" t="n">
+        <v>21.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3923,6 +4021,9 @@
       <c r="X33" t="n">
         <v>1.94</v>
       </c>
+      <c r="Y33" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4015,6 +4116,9 @@
       <c r="X34" t="n">
         <v>1.06</v>
       </c>
+      <c r="Y34" t="n">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4107,6 +4211,9 @@
       <c r="X35" t="n">
         <v>2.39</v>
       </c>
+      <c r="Y35" t="n">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4199,6 +4306,9 @@
       <c r="X36" t="n">
         <v>1.64</v>
       </c>
+      <c r="Y36" t="n">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4291,6 +4401,9 @@
       <c r="X37" t="n">
         <v>1.57</v>
       </c>
+      <c r="Y37" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4383,6 +4496,9 @@
       <c r="X38" t="n">
         <v>0.75</v>
       </c>
+      <c r="Y38" t="n">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4475,6 +4591,9 @@
       <c r="X39" t="n">
         <v>2.0</v>
       </c>
+      <c r="Y39" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4567,6 +4686,9 @@
       <c r="X40" t="n">
         <v>2.29</v>
       </c>
+      <c r="Y40" t="n">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4659,6 +4781,9 @@
       <c r="X41" t="n">
         <v>1.7</v>
       </c>
+      <c r="Y41" t="n">
+        <v>20.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4751,6 +4876,9 @@
       <c r="X42" t="n">
         <v>2.46</v>
       </c>
+      <c r="Y42" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4843,6 +4971,9 @@
       <c r="X43" t="n">
         <v>2.89</v>
       </c>
+      <c r="Y43" t="n">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4935,6 +5066,9 @@
       <c r="X44" t="n">
         <v>2.42</v>
       </c>
+      <c r="Y44" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5027,6 +5161,9 @@
       <c r="X45" t="n">
         <v>1.36</v>
       </c>
+      <c r="Y45" t="n">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5119,6 +5256,9 @@
       <c r="X46" t="n">
         <v>2.59</v>
       </c>
+      <c r="Y46" t="n">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5211,6 +5351,9 @@
       <c r="X47" t="n">
         <v>1.99</v>
       </c>
+      <c r="Y47" t="n">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5303,6 +5446,9 @@
       <c r="X48" t="n">
         <v>0.84</v>
       </c>
+      <c r="Y48" t="n">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5395,6 +5541,9 @@
       <c r="X49" t="n">
         <v>1.45</v>
       </c>
+      <c r="Y49" t="n">
+        <v>24.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5487,6 +5636,9 @@
       <c r="X50" t="n">
         <v>1.81</v>
       </c>
+      <c r="Y50" t="n">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5579,6 +5731,9 @@
       <c r="X51" t="n">
         <v>4.01</v>
       </c>
+      <c r="Y51" t="n">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5671,6 +5826,9 @@
       <c r="X52" t="n">
         <v>3.07</v>
       </c>
+      <c r="Y52" t="n">
+        <v>13.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5763,6 +5921,9 @@
       <c r="X53" t="n">
         <v>0.59</v>
       </c>
+      <c r="Y53" t="n">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5855,6 +6016,9 @@
       <c r="X54" t="n">
         <v>0.99</v>
       </c>
+      <c r="Y54" t="n">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5947,6 +6111,9 @@
       <c r="X55" t="n">
         <v>0.91</v>
       </c>
+      <c r="Y55" t="n">
+        <v>26.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6039,6 +6206,9 @@
       <c r="X56" t="n">
         <v>2.04</v>
       </c>
+      <c r="Y56" t="n">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6131,6 +6301,9 @@
       <c r="X57" t="n">
         <v>1.7</v>
       </c>
+      <c r="Y57" t="n">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6223,6 +6396,9 @@
       <c r="X58" t="n">
         <v>2.68</v>
       </c>
+      <c r="Y58" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6315,6 +6491,9 @@
       <c r="X59" t="n">
         <v>0.65</v>
       </c>
+      <c r="Y59" t="n">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6407,6 +6586,9 @@
       <c r="X60" t="n">
         <v>1.89</v>
       </c>
+      <c r="Y60" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6499,6 +6681,9 @@
       <c r="X61" t="n">
         <v>1.03</v>
       </c>
+      <c r="Y61" t="n">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6591,6 +6776,9 @@
       <c r="X62" t="n">
         <v>1.51</v>
       </c>
+      <c r="Y62" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6683,6 +6871,9 @@
       <c r="X63" t="n">
         <v>1.51</v>
       </c>
+      <c r="Y63" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6775,6 +6966,9 @@
       <c r="X64" t="n">
         <v>0.31</v>
       </c>
+      <c r="Y64" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6867,6 +7061,9 @@
       <c r="X65" t="n">
         <v>0.75</v>
       </c>
+      <c r="Y65" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6959,6 +7156,9 @@
       <c r="X66" t="n">
         <v>1.06</v>
       </c>
+      <c r="Y66" t="n">
+        <v>24.9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7051,6 +7251,9 @@
       <c r="X67" t="n">
         <v>2.26</v>
       </c>
+      <c r="Y67" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7143,6 +7346,9 @@
       <c r="X68" t="n">
         <v>1.57</v>
       </c>
+      <c r="Y68" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7235,6 +7441,9 @@
       <c r="X69" t="n">
         <v>1.26</v>
       </c>
+      <c r="Y69" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7327,6 +7536,9 @@
       <c r="X70" t="n">
         <v>3.08</v>
       </c>
+      <c r="Y70" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7419,6 +7631,9 @@
       <c r="X71" t="n">
         <v>1.89</v>
       </c>
+      <c r="Y71" t="n">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7511,6 +7726,9 @@
       <c r="X72" t="n">
         <v>2.09</v>
       </c>
+      <c r="Y72" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7603,6 +7821,9 @@
       <c r="X73" t="n">
         <v>2.02</v>
       </c>
+      <c r="Y73" t="n">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7695,6 +7916,9 @@
       <c r="X74" t="n">
         <v>1.56</v>
       </c>
+      <c r="Y74" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7787,6 +8011,9 @@
       <c r="X75" t="n">
         <v>1.56</v>
       </c>
+      <c r="Y75" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7879,6 +8106,9 @@
       <c r="X76" t="n">
         <v>2.51</v>
       </c>
+      <c r="Y76" t="n">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7971,6 +8201,9 @@
       <c r="X77" t="n">
         <v>3.31</v>
       </c>
+      <c r="Y77" t="n">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8063,6 +8296,9 @@
       <c r="X78" t="n">
         <v>2.06</v>
       </c>
+      <c r="Y78" t="n">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8155,6 +8391,9 @@
       <c r="X79" t="n">
         <v>1.52</v>
       </c>
+      <c r="Y79" t="n">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8247,6 +8486,9 @@
       <c r="X80" t="n">
         <v>1.86</v>
       </c>
+      <c r="Y80" t="n">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8339,6 +8581,9 @@
       <c r="X81" t="n">
         <v>1.37</v>
       </c>
+      <c r="Y81" t="n">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8431,6 +8676,9 @@
       <c r="X82" t="n">
         <v>0.55</v>
       </c>
+      <c r="Y82" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8523,6 +8771,9 @@
       <c r="X83" t="n">
         <v>1.31</v>
       </c>
+      <c r="Y83" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8615,6 +8866,9 @@
       <c r="X84" t="n">
         <v>0.92</v>
       </c>
+      <c r="Y84" t="n">
+        <v>22.3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8707,6 +8961,9 @@
       <c r="X85" t="n">
         <v>1.33</v>
       </c>
+      <c r="Y85" t="n">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8799,6 +9056,9 @@
       <c r="X86" t="n">
         <v>0.41</v>
       </c>
+      <c r="Y86" t="n">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8891,6 +9151,9 @@
       <c r="X87" t="n">
         <v>2.32</v>
       </c>
+      <c r="Y87" t="n">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8983,6 +9246,9 @@
       <c r="X88" t="n">
         <v>1.84</v>
       </c>
+      <c r="Y88" t="n">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9074,6 +9340,9 @@
       </c>
       <c r="X89" t="n">
         <v>2.05</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>11.6</v>
       </c>
     </row>
   </sheetData>
